--- a/Excel_Files/Dataset_Completely_Clean.xlsx
+++ b/Excel_Files/Dataset_Completely_Clean.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jogeo\Desktop\Project\Blood-Brain-Barrier-Drug-Prediction\Excel_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6FF71AB-78FC-40A5-BF4C-1B16D9834DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63B7DF9-2A42-469E-AF98-ABEA3654C5A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AD858D13-504F-43BF-886F-F281608A3ABE}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9680" uniqueCount="4671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9938" uniqueCount="4815">
   <si>
     <t>SMILES</t>
   </si>
@@ -14050,6 +14050,438 @@
   </si>
   <si>
     <t>Source</t>
+  </si>
+  <si>
+    <t>CCS(=O)(=O)N[C@H](CC1=CC=C(C=C1)C2=CC=CC=C2)C(=O)N[C@@H](CCC(=O)N)C(=O)NCC3=CC=C(C=C3)C(=N)N</t>
+  </si>
+  <si>
+    <t>C1CN=C(N1)NC2=C(C=C(C=C2Cl)N)Cl.Cl</t>
+  </si>
+  <si>
+    <t>C([C@@H]([C@@H]1C(=C(C(=O)O1)O)O)O)O</t>
+  </si>
+  <si>
+    <t>C([C@@H](C(=O)O)N)C(=O)O</t>
+  </si>
+  <si>
+    <t>COC1=CC=C(C=C1)CCN2CCC(CC2)NC3=NC4=CC=CC=C4N3CC5=CC=C(C=C5)F</t>
+  </si>
+  <si>
+    <t>C[N+](C)(C)CCOC(=O)N.[Cl-]</t>
+  </si>
+  <si>
+    <t>C1=C(C=C(C2=C1NC(=CC2=O)C(=O)O)Cl)Cl</t>
+  </si>
+  <si>
+    <t>CC(=O)N(CCCCCNC(=O)CCC(=O)N(CCCCCNC(=O)CCC(=O)N(CCCCCN)O)O)O.CS(=O)(=O)O</t>
+  </si>
+  <si>
+    <t>C([C@@H]([C@@H]1C(=O)C(=O)C(=O)O1)O)O</t>
+  </si>
+  <si>
+    <t>C1=CC=C(C(=C1)N)NC(=O)C2=CC=C(C=C2)CNC3=NC=CC(=N3)C4=CN=CC=C4</t>
+  </si>
+  <si>
+    <t>C[N+]1(CC[C@]23[C@@H]4C(=O)CC[C@]2([C@H]1CC5=C3C(=C(C=C5)O)O4)O)CC=C.[I-]</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.2147/IJN.S170564</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/15736415/</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/s0161-6420(88)33038-1</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1172/JCI119832</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/17948/</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/1056-8727(92)90057-r</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/0166-4328(94)00125-y</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3109/10611860108995630</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.jconrel.2015.01.025</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1073/pnas.171325998</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s12640-014-9464-1</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1080/10611860410001701706</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.2967/jnumed.107.047308</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3390/ijms22147387</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3390/pharmaceutics13081126</t>
+  </si>
+  <si>
+    <t>C1=C(C(=CC(=C1O)O)O)CCN</t>
+  </si>
+  <si>
+    <t>C1CC2=C(C=CC(=C2)Cl)C(=C3CCNCC3)C4=C1C=CC=N4</t>
+  </si>
+  <si>
+    <t>C(C(=O)C(=O)O)Br</t>
+  </si>
+  <si>
+    <t>C1=CC2=C(C=C1O)C(=CN2)CCN</t>
+  </si>
+  <si>
+    <t>CN(C)CC[C@H](CSC1=CC=CC=C1)NC2=C(C=C(C=C2)S(=O)(=O)NC(=O)C3=CC=C(C=C3)N4CCN(CC4)CC5=CC=CC=C5C6=CC=C(C=C6)Cl)[N+](=O)[O-]</t>
+  </si>
+  <si>
+    <t>C1=NC(=C2C(=N1)N(C=N2)[C@H]3[C@@H]([C@@H]([C@H](O3)CO)O)O)N</t>
+  </si>
+  <si>
+    <t>C[C@H]1CN(CC[C@@]1(C)C2=CC(=CC=C2)O)C[C@H](CC3=CC=CC=C3)C(=O)NCC(=O)O</t>
+  </si>
+  <si>
+    <t>CC[C@H](C)[C@@H](C(=O)N[C@@H](CC1=CN=CN1)C(=O)N2CCC[C@H]2C(=O)N[C@@H](CC3=CC=CC=C3)C(=O)O)NC(=O)[C@H](CC4=CC=C(C=C4)O)NC(=O)[C@H](C(C)C)NC(=O)[C@H](CCCN=C(N)N)NC(=O)[C@H](CC(=O)O)N</t>
+  </si>
+  <si>
+    <t>CN([C@H](CN1CC[C@@H](C1)O)C2=CC=CC=C2)C(=O)C(C3=CC=CC=C3)C4=CC=CC=C4</t>
+  </si>
+  <si>
+    <t>CCCC[C@@H](C(=O)N[C@@H](C)C(=O)N[C@@H](CCCNC(=N)N)C(=O)N[C@@H](C)C(=O)N[C@@H](CCC(=O)O)C(=O)N[C@@H](CCC(=O)N)C(=O)N[C@@H](CC(C)C)C(=O)N[C@@H](C)C(=O)N[C@@H](CCC(=O)N)C(=O)N[C@H]1CCC(=O)NCCCC[C@H](NC(=O)[C@@H](NC(=O)[C@@H](NC1=O)C)CC2=CNC=N2)C(=O)N[C@@H](CC(=O)N)C(=O)N[C@@H](CCCNC(=N)N)C(=O)N[C@@H](CCCCN)C(=O)N[C@@H](CC(C)C)C(=O)N[C@@H](CCCC)C(=O)N[C@@H](CCC(=O)O)C(=O)N[C@@H]([C@@H](C)CC)C(=O)N[C@@H]([C@@H](C)CC)C(=O)N)NC(=O)[C@H](CCC(=O)O)NC(=O)[C@H](CC(C)C)NC(=O)[C@H](C(C)C)NC(=O)[C@H](CCC(=O)O)NC(=O)[C@H](CCCNC(=N)N)NC(=O)[C@H](CC(C)C)NC(=O)[C@H](CC(C)C)NC(=O)[C@H](CC3=CNC=N3)NC(=O)[C@@H](CC4=CC=CC=C4)N</t>
+  </si>
+  <si>
+    <t>C1=CC(=CC=C1C(CC(=O)O)CN)Cl</t>
+  </si>
+  <si>
+    <t>CN1CCC2=CC3=C(C=C2[C@H]1[C@H]4C5=C(C6=C(C=C5)OCO6)C(=O)O4)OCO3</t>
+  </si>
+  <si>
+    <t>C[C@H](CCCC(C)C)[C@H]1CC[C@@H]2[C@@]1(CC[C@H]3[C@H]2CC=C4[C@@]3(CC[C@@H](C4)O)C)C</t>
+  </si>
+  <si>
+    <t>C[N+]1(CCN(CC1)C2=NC3=C(C=CC(=C3)Cl)NC4=CC=CC=C42)[O-]</t>
+  </si>
+  <si>
+    <t>C(C1C2C(C(C(O1)OC3C(OC(C(C3O)O)OC4C(OC(C(C4O)O)OC5C(OC(C(C5O)O)OC6C(OC(C(C6O)O)OC7C(OC(O2)C(C7O)O)CO)CO)CO)CO)CO)O)O)O</t>
+  </si>
+  <si>
+    <t>C(C[C@H](C(=O)O)N)CP(=O)(O)O</t>
+  </si>
+  <si>
+    <t>CC(=O)N(CCCCCNC(=O)CCC(=O)N(CCCCCNC(=O)CCC(=O)N(CCCCCN)O)O)O</t>
+  </si>
+  <si>
+    <t>CC1=NN(C(=O)C1)C2=CC=CC=C2</t>
+  </si>
+  <si>
+    <t>C[C@@H]1C[C@@H]2CC[C@H]3C(=C)C[C@@H](O3)CC[C@]45C[C@@H]6[C@H](O4)[C@H]7[C@@H](O6)[C@@H](O5)[C@@H]8[C@@H](O7)CC[C@@H](O8)CC(=O)C[C@H]9[C@H](C[C@H](C1=C)O2)O[C@@H]([C@@H]9OC)C[C@@H](CN)O</t>
+  </si>
+  <si>
+    <t>CC[C@]1(C[C@@H](C2=C([C@H]1C(=O)OC)C(=C3C(=C2O)C(=O)C4=C(C3=O)C=CC=C4OC)O)O[C@H]5C[C@@H]([C@@H]([C@@H](O5)C)O)N(C)C)O</t>
+  </si>
+  <si>
+    <t>CC(C)(C1=CC=C(C=C1)C(CCCN2CCC(CC2)C(C3=CC=CC=C3)(C4=CC=CC=C4)O)O)C(=O)O</t>
+  </si>
+  <si>
+    <t>C[C@@H]1C[C@@H]([C@@H]2[C@H](C[C@H]([C@@](O2)(C(=O)C(=O)N3CCCC[C@H]3C(=O)O[C@@H]([C@@H]([C@H](CC(=O)[C@@H](/C=C(/C1)\C)CC=C)O)C)/C(=C/[C@@H]4CC[C@H]([C@@H](C4)OC)O)/C)O)C)OC)OC</t>
+  </si>
+  <si>
+    <t>C(CC(=O)O)CN</t>
+  </si>
+  <si>
+    <t>C[N+]1(CCC(C1)OC(=O)C(C2CCCC2)(C3=CC=CC=C3)O)C.[Br-]</t>
+  </si>
+  <si>
+    <t>C(CC(=O)N[C@@H](CS)C(=O)NCC(=O)O)[C@@H](C(=O)O)N</t>
+  </si>
+  <si>
+    <t>COCCOC1=CN=CC(=C1)C2=NC=C3C=CC4=C(C3=C2)NC5=C4C(=O)N=CC5</t>
+  </si>
+  <si>
+    <t>C1=C(NC=N1)CCN</t>
+  </si>
+  <si>
+    <t>C1=CC(=CC=C1C[C@@H](C(=O)NCC(=O)N[C@@H](CCCN=C(N)N)C(=O)N[C@@H](CCCCN)C(=O)N[C@@H](CCCCN)C(=O)N[C@@H](CCCN=C(N)N)C(=O)N[C@@H](CCCN=C(N)N)C(=O)N[C@@H](CCC(=O)N)C(=O)N[C@@H](CCCN=C(N)N)C(=O)N[C@@H](CCCN=C(N)N)C(=O)N[C@@H](CCCN=C(N)N)C(=O)O)N)O</t>
+  </si>
+  <si>
+    <t>CCOC1=CC=C(C=C1)C2=NC3=C(N2)C=C(C=C3)C4=NC5=C(N4)C=C(C=C5)N6CCN(CC6)C</t>
+  </si>
+  <si>
+    <t>CC(C)OCC1CO1</t>
+  </si>
+  <si>
+    <t>C1CN(CC2=C1C(=C(S2)NC(=O)C3=CC(=C(C=C3Cl)Cl)S(=O)(=O)N4CCOCC4)C#N)CC5=CC=C(C=C5)O</t>
+  </si>
+  <si>
+    <t>CC1=C(C=C(C=C1)NC(=O)C2=CC=C(C=C2)CN3CCN(CC3)C)NC4=NC=CC(=N4)C5=CN=CC=C5</t>
+  </si>
+  <si>
+    <t>CC[C@H](C)[C@H]1C(=O)N[C@H]2CSSC[C@@H](C(=O)N[C@@H](CSSC[C@@H](C(=O)NCC(=O)N[C@H](C(=O)N[C@H](C(=O)N[C@H](C(=O)N[C@H](C(=O)N[C@H](C(=O)N[C@H](C(=O)N[C@H](C(=O)N[C@H](C(=O)N[C@H](C(=O)N[C@H](C(=O)N[C@@H](CSSC[C@H](NC(=O)[C@@H](NC(=O)[C@@H](NC(=O)[C@@H](NC(=O)[C@@H](NC(=O)[C@@H](NC(=O)[C@@H](NC(=O)[C@@H](NC(=O)[C@@H](NC2=O)CO)CC(C)C)CC3=CC=C(C=C3)O)CCC(=O)N)CC(C)C)CCC(=O)O)CC(=O)N)CC4=CC=C(C=C4)O)C(=O)N[C@@H](CC(=O)N)C(=O)O)C(=O)NCC(=O)N[C@@H](CCC(=O)O)C(=O)N[C@@H](CCCNC(=N)N)C(=O)NCC(=O)N[C@@H](CC5=CC=CC=C5)C(=O)N[C@@H](CC6=CC=CC=C6)C(=O)N[C@@H](CC7=CC=C(C=C7)O)C(=O)N[C@@H]([C@@H](C)O)C(=O)N8CCC[C@H]8C(=O)N[C@@H](CCCCN)C(=O)N[C@@H](C)C(=O)O)C(C)C)CC(C)C)CC9=CC=C(C=C9)O)CC(C)C)C)CCC(=O)O)C(C)C)CC(C)C)CC2=CN=CN2)CO)NC(=O)[C@H](CC(C)C)NC(=O)[C@H](CC2=CN=CN2)NC(=O)[C@H](CCC(=O)N)NC(=O)[C@H](CC(=O)N)NC(=O)[C@H](C(C)C)NC(=O)[C@H](CC2=CC=CC=C2)N)C(=O)N[C@H](C(=O)N[C@H](C(=O)N1)CO)[C@@H](C)O)NC(=O)[C@H](CCC(=O)N)NC(=O)[C@H](CCC(=O)O)NC(=O)[C@H](C(C)C)NC(=O)[C@H]([C@@H](C)CC)NC(=O)CN</t>
+  </si>
+  <si>
+    <t>C1=CC=C2C(=C1)C(=O)C=C(N2)C(=O)O</t>
+  </si>
+  <si>
+    <t>C[N+](C)(C)C[C@@H](CC(=O)[O-])O</t>
+  </si>
+  <si>
+    <t>CC(C)C[C@@H](C(=O)N[C@@H](CCC1=CC=CC=C1)/C=C/S(=O)(=O)C2=CC=CC=C2)NC(=O)N3CCOCC3</t>
+  </si>
+  <si>
+    <t>CN1CCN(CC1)C2CCN(CC2)C(=O)C3=CC(=C(C=C3)NC4=NC=C5C(=N4)N(C6=CC=CC=C6C(=O)N5C)C)OC</t>
+  </si>
+  <si>
+    <t>COC1=CC=CC(=C1)C2=CC=C(C=C2)[C@H](C(F)(F)F)OC3=NC(=NC(=C3)C4=CC=C(C=C4)C[C@@H](C(=O)O)N)N</t>
+  </si>
+  <si>
+    <t>CN=NNC1=C(NC=N1)C(=O)N</t>
+  </si>
+  <si>
+    <t>CNCCC1=CN=CN1</t>
+  </si>
+  <si>
+    <t>CN(C)C(=O)OC1=CC=CC(=C1)[N+](C)(C)C</t>
+  </si>
+  <si>
+    <t>C([C@@H]([C@H]([C@H]([C@@H]([C@@H](CO)O)O)O)NC(=O)CO)O)C(=O)C(=O)O</t>
+  </si>
+  <si>
+    <t>CC1=CN(C(=O)NC1=O)[C@H]2[C@@H]([C@@H]([C@H](O2)CO)OP(=S)(O)OC[C@@H]3[C@H]([C@H]([C@@H](O3)N4C=C(C(=NC4=O)N)C)OCCOC)OP(=S)(O)OC[C@@H]5[C@H]([C@H]([C@@H](O5)N6C=NC7=C(N=CN=C76)N)OCCOC)OP(=S)(O)OC[C@@H]8[C@H]([C@H]([C@@H](O8)N9C=C(C(=NC9=O)N)C)OCCOC)OP(=S)(O)OC[C@@H]1[C@H]([C@H]([C@@H](O1)N1C=C(C(=O)NC1=O)C)OCCOC)OP(=S)(O)OC[C@@H]1[C@H]([C@H]([C@@H](O1)N1C=C(C(=O)NC1=O)C)OCCOC)OP(=S)(O)OC[C@@H]1[C@H]([C@H]([C@@H](O1)N1C=C(C(=O)NC1=O)C)OCCOC)OP(=S)(O)OC[C@@H]1[C@H]([C@H]([C@@H](O1)N1C=C(C(=NC1=O)N)C)OCCOC)OP(=S)(O)OC[C@@H]1[C@H]([C@H]([C@@H](O1)N1C=NC2=C(N=CN=C21)N)OCCOC)OP(=S)(O)OC[C@@H]1[C@H]([C@H]([C@@H](O1)N1C=C(C(=O)NC1=O)C)OCCOC)OP(=S)(O)OC[C@@H]1[C@H]([C@H]([C@@H](O1)N1C=NC2=C(N=CN=C21)N)OCCOC)OP(=S)(O)OC[C@@H]1[C@H]([C@H]([C@@H](O1)N1C=NC2=C(N=CN=C21)N)OCCOC)OP(=S)(O)OC[C@@H]1[C@H]([C@H]([C@@H](O1)N1C=C(C(=O)NC1=O)C)OCCOC)OP(=S)(O)OC[C@@H]1[C@H]([C@H]([C@@H](O1)N1C=NC2=C1N=C(NC2=O)N)OCCOC)OP(=S)(O)OC[C@@H]1[C@H]([C@H]([C@@H](O1)N1C=C(C(=NC1=O)N)C)OCCOC)OP(=S)(O)OC[C@@H]1[C@H]([C@H]([C@@H](O1)N1C=C(C(=O)NC1=O)C)OCCOC)OP(=S)(O)OC[C@@H]1[C@H]([C@H]([C@@H](O1)N1C=NC2=C1N=C(NC2=O)N)OCCOC)OP(=S)(O)OC[C@@H]1[C@H]([C@H]([C@@H](O1)N1C=NC2=C1N=C(NC2=O)N)OCCOC)O)OCCOC</t>
+  </si>
+  <si>
+    <t>CC(C)C[C@@H](C(=O)N)NC(=O)[C@H](CC(C)C)NC(=O)[C@@H](CC1=CNC2=CC=CC=C21)NC(=O)[C@H](CC3=CC=CC=C3)NC(=O)[C@@H](CC4=CNC5=CC=CC=C54)NC(=O)CC6=CC=C(C=C6)O</t>
+  </si>
+  <si>
+    <t>CC(C)C[C@@H](CN[C@@H](CC(C)C)C(=O)N)NC(=O)[C@@H](CC1=CNC2=CC=CC=C21)NC(=O)[C@H](CC3=CC=CC=C3)NC(=O)[C@@H](CC4=CNC5=CC=CC=C54)NC(=O)[C@@H](CC6=CC=CC=C6)NC</t>
+  </si>
+  <si>
+    <t>CC1=CN(C(=O)NC1=O)C2CC(C(O2)COP(=O)(O)OC3CC(OC3COP(=O)(O)OC4CC(OC4COP(=O)(O)OC5CC(OC5COP(=O)(O)OC6CC(OC6COP(=O)(O)OC7CC(OC7COP(=O)(O)OC8CC(OC8COP(=O)(O)OC9CC(OC9COP(=O)(O)OC1CC(OC1COP(=O)(O)OC1CC(OC1COP(=O)(O)OC1CC(OC1COP(=O)(O)OC1CC(OC1CO)N1C=NC2=C(N=CN=C21)N)N1C=CC(=NC1=O)N)N1C=NC2=C(N=CN=C21)N)N1C=CC(=NC1=O)N)N1C=CC(=NC1=O)N)N1C=CC(=NC1=O)N)N1C=NC2=C(N=CN=C21)N)N1C=NC2=C(N=CN=C21)N)N1C=C(C(=O)NC1=O)C)N1C=C(C(=O)NC1=O)C)N1C=CC(=NC1=O)N)OP(=O)(O)OCC1C(CC(O1)N1C=NC2=C1N=C(NC2=O)N)OP(=O)(O)OCC1C(CC(O1)N1C=NC2=C(N=CN=C21)N)OP(=O)(O)OCC1C(CC(O1)N1C=NC2=C(N=CN=C21)N)OP(=O)(O)OCC1C(CC(O1)N1C=NC2=C(N=CN=C21)N)OP(=O)(O)OCC1C(CC(O1)N1C=NC2=C(N=CN=C21)N)OP(=O)(O)OCC1C(CC(O1)N1C=C(C(=O)NC1=O)C)OP(=O)(O)OCC1C(CC(O1)N1C=NC2=C1N=C(NC2=O)N)OP(=O)(O)OCC1C(CC(O1)N1C=NC2=C1N=C(NC2=O)N)O</t>
+  </si>
+  <si>
+    <t>CC1=C(C(=[N+](C(=C1Cl)C)[O-])Cl)C2=NOC(=N2)C3=CC(=C(C(=C3)O)O)[N+](=O)[O-]</t>
+  </si>
+  <si>
+    <t>CC1=C2[C@H](C(=O)[C@@]3([C@H](C[C@@H]4[C@]([C@H]3[C@@H]([C@@](C2(C)C)(C[C@@H]1OC(=O)[C@@H]([C@H](C5=CC=CC=C5)NC(=O)C6=CC=CC=C6)O)O)OC(=O)C7=CC=CC=C7)(CO4)OC(=O)C)O)C)OC(=O)C</t>
+  </si>
+  <si>
+    <t>C(CO)O</t>
+  </si>
+  <si>
+    <t>C1=CC(=CC=C1C(=N)N)OCCCCCOC2=CC=C(C=C2)C(=N)N</t>
+  </si>
+  <si>
+    <t>CC1=C(C(=C(C(=N1)N=NC2=C(C=C(C=C2)S(=O)(=O)O)S(=O)(=O)O)COP(=O)(O)O)C=O)O</t>
+  </si>
+  <si>
+    <t>CC[C@H](C)[C@@H](C(=O)N[C@@H](C)C(=O)N[C@@H](CC1=CNC2=CC=CC=C21)C(=O)N[C@@H](CC(C)C)C(=O)N[C@@H](C(C)C)C(=O)N[C@@H](CCCNC(=N)N)C(=O)NCC(=O)N[C@@H](CCCNC(=N)N)C(=O)NCC(=O)O)NC(=O)[C@H](CC3=CC=CC=C3)NC(=O)[C@H](CCC(=O)O)NC(=O)[C@H](CCCCNC(=O)COCCOCCNC(=O)COCCOCCNC(=O)CC[C@H](C(=O)O)NC(=O)CCCCCCCCCCCCCCCCC(=O)O)NC(=O)[C@H](C)NC(=O)[C@H](C)NC(=O)[C@H](CCC(=O)N)NC(=O)CNC(=O)[C@H](CCC(=O)O)NC(=O)[C@H](CC(C)C)NC(=O)[C@H](CC4=CC=C(C=C4)O)NC(=O)[C@H](CO)NC(=O)[C@H](CO)NC(=O)[C@H](C(C)C)NC(=O)[C@H](CC(=O)O)NC(=O)[C@H](CO)NC(=O)[C@H]([C@@H](C)O)NC(=O)[C@H](CC5=CC=CC=C5)NC(=O)[C@H]([C@@H](C)O)NC(=O)CNC(=O)[C@H](CCC(=O)O)NC(=O)C(C)(C)NC(=O)[C@H](CC6=CN=CN6)N</t>
+  </si>
+  <si>
+    <t>CCCC[C@@H](C(=O)N(C(=O)[C@@H]1CCCN1C(=O)[C@@H](CCCCNC(=O)C2=CN=CC=C2)N)C(=O)[C@@H]3CCCN3C(=O)[C@H](CC4=CN=CC=C4)N)NC(=O)[C@H](CC(C)C)NC(=O)[C@@H](CC5=CNC6=CC=CC=C65)NC(=O)[C@H](CC7=CC=CC=C7)NC(=O)[C@@H](CC8=CNC9=CC=CC=C98)NC(=O)[C@H](CC(=O)N)NC(=O)[C@@H](CC1=CC(=C(C=C1)Cl)Cl)N</t>
+  </si>
+  <si>
+    <t>C1CC[N+]2(C1)[C@@H]3CC[C@H]2CC(C3)OC(=O)C(C4=CC=CC=C4)(C5=CC=CC=C5)O</t>
+  </si>
+  <si>
+    <t>B([C@H](CC(C)C)NC(=O)[C@H](CC1=CC=CC=C1)NC(=O)C2=NC=CN=C2)(O)O</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fimmu.2021.700903</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/prp2.499</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3390/cancers11020229</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.jcmgh.2021.05.008</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.immuni.2021.04.007</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3390/molecules23113019</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fphar.2017.00913</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3390/ijms12107114</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1111/aas.12601</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.tranon.2018.03.014</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1155/2012/581695</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3990131/</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1111/nmo.13833</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3390/cells10051228</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41531-018-0066-0</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3390/ph12020099</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fncel.2021.721376</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.celrep.2019.03.079</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fncel.2018.00293</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1242/dmm.010124</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fphar.2014.00284</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3390/ph12040144</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3390/jcm10061313</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.2147/IJNRD.S22783</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5168823/</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3390/biom9100562</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.4137/BCBCR.S21176</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.heliyon.2021.e07740</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fpubh.2018.00185</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/emmm.201000102</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3390/biom11081091</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.4103/0974-2700.43180</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fimmu.2021.703972</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1155/2012/860923</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s10194-019-0984-1</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fmolb.2021.723003</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/1471-2407-11-124</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3892/etm.2020.8789</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3390/tropicalmed5030138</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.2174/1570159X18666200128121920</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fendo.2015.00013</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s12883-019-1267-9</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fpsyt.2021.671151</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.apsb.2015.08.001</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5217/ir.2015.13.4.306</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/mds.26075</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3748/wjg.v23.i36.6593</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3390/ph7070797</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.4097/kjae.2011.61.5.358</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1155/2018/9150207</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1126/sciadv.aax6646</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41598-020-74346-9</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3390/cancers12092682</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3390/pharmaceutics12100970</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.prdoa.2020.100083</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s13020-021-00468-5</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1530/ERC-16-0140</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3797/scipharm.1012-08</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fphys.2014.00096</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3390/medicina57060616</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3390/biomedicines9080926</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.2147/OAJU.S7233</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1155/2012/251217</t>
   </si>
 </sst>
 </file>
@@ -14123,12 +14555,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -14444,10 +14877,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BEBDAED-DA2C-4442-A1DD-59FA47860CD0}">
-  <dimension ref="A1:P3477"/>
+  <dimension ref="A1:P3563"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A263" workbookViewId="0">
+      <selection activeCell="A336" sqref="A336"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14455,7 +14888,7 @@
     <col min="2" max="2" width="13.21875" customWidth="1"/>
     <col min="3" max="3" width="16.109375" customWidth="1"/>
     <col min="4" max="4" width="16.33203125" customWidth="1"/>
-    <col min="5" max="5" width="24" customWidth="1"/>
+    <col min="5" max="5" width="41.5546875" customWidth="1"/>
     <col min="6" max="6" width="10.77734375" customWidth="1"/>
     <col min="13" max="13" width="11.44140625" customWidth="1"/>
     <col min="14" max="14" width="12.6640625" customWidth="1"/>
@@ -63175,6 +63608,1210 @@
       </c>
       <c r="G3477">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3478" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3478" t="s">
+        <v>4671</v>
+      </c>
+      <c r="E3478" s="3" t="s">
+        <v>4682</v>
+      </c>
+      <c r="F3478" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3478">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3479" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3479" t="s">
+        <v>2505</v>
+      </c>
+      <c r="E3479" s="3" t="s">
+        <v>4683</v>
+      </c>
+      <c r="F3479" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3479">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3480" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3480" t="s">
+        <v>4672</v>
+      </c>
+      <c r="E3480" s="3" t="s">
+        <v>4684</v>
+      </c>
+      <c r="F3480" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3480">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3481" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3481" t="s">
+        <v>4673</v>
+      </c>
+      <c r="E3481" s="3" t="s">
+        <v>4685</v>
+      </c>
+      <c r="F3481" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3481">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3482" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3482" t="s">
+        <v>4674</v>
+      </c>
+      <c r="E3482" s="3" t="s">
+        <v>4686</v>
+      </c>
+      <c r="F3482" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3482">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3483" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3483" t="s">
+        <v>4675</v>
+      </c>
+      <c r="E3483" s="3" t="s">
+        <v>4687</v>
+      </c>
+      <c r="F3483" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3483">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3484" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3484" t="s">
+        <v>4676</v>
+      </c>
+      <c r="E3484" s="3" t="s">
+        <v>4688</v>
+      </c>
+      <c r="F3484" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3484">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3485" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3485" t="s">
+        <v>4677</v>
+      </c>
+      <c r="E3485" s="3" t="s">
+        <v>4689</v>
+      </c>
+      <c r="F3485" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3485">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3486" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3486" t="s">
+        <v>4678</v>
+      </c>
+      <c r="E3486" s="3" t="s">
+        <v>4690</v>
+      </c>
+      <c r="F3486" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3486">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3487" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3487" t="s">
+        <v>4679</v>
+      </c>
+      <c r="E3487" s="3" t="s">
+        <v>4691</v>
+      </c>
+      <c r="F3487" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3487">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3488" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3488" t="s">
+        <v>2494</v>
+      </c>
+      <c r="E3488" s="3" t="s">
+        <v>4692</v>
+      </c>
+      <c r="F3488" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3488">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3489" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3489" t="s">
+        <v>4680</v>
+      </c>
+      <c r="E3489" s="3" t="s">
+        <v>4693</v>
+      </c>
+      <c r="F3489" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3489">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3490" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3490" t="s">
+        <v>2586</v>
+      </c>
+      <c r="E3490" s="3" t="s">
+        <v>4694</v>
+      </c>
+      <c r="F3490" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3490">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3491" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3491" t="s">
+        <v>2592</v>
+      </c>
+      <c r="E3491" s="3" t="s">
+        <v>4692</v>
+      </c>
+      <c r="F3491" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3491">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3492" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3492" t="s">
+        <v>4681</v>
+      </c>
+      <c r="E3492" s="3" t="s">
+        <v>4695</v>
+      </c>
+      <c r="F3492" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3492">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3493" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3493" t="s">
+        <v>2633</v>
+      </c>
+      <c r="E3493" s="3" t="s">
+        <v>4696</v>
+      </c>
+      <c r="F3493" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3493">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3494" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3494" t="s">
+        <v>4697</v>
+      </c>
+      <c r="E3494" s="3" t="s">
+        <v>4752</v>
+      </c>
+      <c r="F3494" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3494">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3495" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3495" t="s">
+        <v>4698</v>
+      </c>
+      <c r="E3495" s="3" t="s">
+        <v>4753</v>
+      </c>
+      <c r="F3495" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3495">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3496" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3496" t="s">
+        <v>4671</v>
+      </c>
+      <c r="E3496" s="3" t="s">
+        <v>4682</v>
+      </c>
+      <c r="F3496" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3496">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3497" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3497" t="s">
+        <v>4699</v>
+      </c>
+      <c r="E3497" s="3" t="s">
+        <v>4754</v>
+      </c>
+      <c r="F3497" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3497">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3498" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3498" t="s">
+        <v>4700</v>
+      </c>
+      <c r="E3498" s="3" t="s">
+        <v>4755</v>
+      </c>
+      <c r="F3498" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3498">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3499" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3499" t="s">
+        <v>4697</v>
+      </c>
+      <c r="E3499" s="3" t="s">
+        <v>4756</v>
+      </c>
+      <c r="F3499" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3499">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3500" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3500" t="s">
+        <v>4701</v>
+      </c>
+      <c r="E3500" s="3" t="s">
+        <v>4757</v>
+      </c>
+      <c r="F3500" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3500">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3501" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3501" t="s">
+        <v>4702</v>
+      </c>
+      <c r="E3501" s="3" t="s">
+        <v>4758</v>
+      </c>
+      <c r="F3501" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3501">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3502" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3502" t="s">
+        <v>2494</v>
+      </c>
+      <c r="E3502" s="3" t="s">
+        <v>4759</v>
+      </c>
+      <c r="F3502" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3502">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3503" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3503" t="s">
+        <v>4703</v>
+      </c>
+      <c r="E3503" s="3" t="s">
+        <v>4760</v>
+      </c>
+      <c r="F3503" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3503">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3504" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3504" t="s">
+        <v>2505</v>
+      </c>
+      <c r="E3504" s="3" t="s">
+        <v>4761</v>
+      </c>
+      <c r="F3504" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3504">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3505" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3505" t="s">
+        <v>4704</v>
+      </c>
+      <c r="E3505" s="3" t="s">
+        <v>4762</v>
+      </c>
+      <c r="F3505" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3505">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3506" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3506" t="s">
+        <v>4705</v>
+      </c>
+      <c r="E3506" s="3" t="s">
+        <v>4763</v>
+      </c>
+      <c r="F3506" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3506">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3507" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3507" t="s">
+        <v>4706</v>
+      </c>
+      <c r="E3507" s="3" t="s">
+        <v>4764</v>
+      </c>
+      <c r="F3507" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3507">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3508" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3508" t="s">
+        <v>4707</v>
+      </c>
+      <c r="E3508" s="3" t="s">
+        <v>4765</v>
+      </c>
+      <c r="F3508" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3508">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3509" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3509" t="s">
+        <v>2514</v>
+      </c>
+      <c r="E3509" s="3" t="s">
+        <v>4766</v>
+      </c>
+      <c r="F3509" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3509">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3510" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3510" t="s">
+        <v>4708</v>
+      </c>
+      <c r="E3510" s="3" t="s">
+        <v>4767</v>
+      </c>
+      <c r="F3510" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3510">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3511" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3511" t="s">
+        <v>4709</v>
+      </c>
+      <c r="E3511" s="3" t="s">
+        <v>4768</v>
+      </c>
+      <c r="F3511" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3511">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3512" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3512" t="s">
+        <v>2534</v>
+      </c>
+      <c r="E3512" s="3" t="s">
+        <v>4769</v>
+      </c>
+      <c r="F3512" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3512">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3513" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3513" t="s">
+        <v>4710</v>
+      </c>
+      <c r="E3513" s="3" t="s">
+        <v>4770</v>
+      </c>
+      <c r="F3513" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3513">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3514" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3514" t="s">
+        <v>4711</v>
+      </c>
+      <c r="E3514" s="3" t="s">
+        <v>4771</v>
+      </c>
+      <c r="F3514" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3514">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3515" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3515" t="s">
+        <v>4712</v>
+      </c>
+      <c r="E3515" s="3" t="s">
+        <v>4772</v>
+      </c>
+      <c r="F3515" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3515">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3516" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3516" t="s">
+        <v>4713</v>
+      </c>
+      <c r="E3516" s="3" t="s">
+        <v>4773</v>
+      </c>
+      <c r="F3516" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3516">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3517" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3517" t="s">
+        <v>2550</v>
+      </c>
+      <c r="E3517" s="3" t="s">
+        <v>4774</v>
+      </c>
+      <c r="F3517" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3517">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3518" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3518" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E3518" s="3" t="s">
+        <v>4775</v>
+      </c>
+      <c r="F3518" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3518">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3519" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3519" t="s">
+        <v>2494</v>
+      </c>
+      <c r="E3519" s="3" t="s">
+        <v>4776</v>
+      </c>
+      <c r="F3519" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3519">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3520" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3520" t="s">
+        <v>4714</v>
+      </c>
+      <c r="E3520" s="3" t="s">
+        <v>4777</v>
+      </c>
+      <c r="F3520" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3520">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3521" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3521" t="s">
+        <v>2488</v>
+      </c>
+      <c r="E3521" s="3" t="s">
+        <v>4775</v>
+      </c>
+      <c r="F3521" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3521">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3522" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3522" t="s">
+        <v>4715</v>
+      </c>
+      <c r="E3522" s="3" t="s">
+        <v>4778</v>
+      </c>
+      <c r="F3522" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3522">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3523" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3523" t="s">
+        <v>4716</v>
+      </c>
+      <c r="E3523" s="3" t="s">
+        <v>4779</v>
+      </c>
+      <c r="F3523" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3523">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3524" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3524" t="s">
+        <v>4717</v>
+      </c>
+      <c r="E3524" s="3" t="s">
+        <v>4780</v>
+      </c>
+      <c r="F3524" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3524">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3525" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3525" t="s">
+        <v>4718</v>
+      </c>
+      <c r="E3525" s="3" t="s">
+        <v>4781</v>
+      </c>
+      <c r="F3525" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3525">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3526" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3526" t="s">
+        <v>4719</v>
+      </c>
+      <c r="E3526" s="3" t="s">
+        <v>4782</v>
+      </c>
+      <c r="F3526" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3526">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3527" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3527" t="s">
+        <v>4720</v>
+      </c>
+      <c r="E3527" s="3" t="s">
+        <v>4783</v>
+      </c>
+      <c r="F3527" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3527">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3528" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3528" t="s">
+        <v>4721</v>
+      </c>
+      <c r="E3528" s="3" t="s">
+        <v>4784</v>
+      </c>
+      <c r="F3528" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3528">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3529" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3529" t="s">
+        <v>4722</v>
+      </c>
+      <c r="E3529" s="3" t="s">
+        <v>4785</v>
+      </c>
+      <c r="F3529" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3529">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3530" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3530" t="s">
+        <v>4723</v>
+      </c>
+      <c r="E3530" s="3" t="s">
+        <v>4786</v>
+      </c>
+      <c r="F3530" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3530">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3531" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3531" t="s">
+        <v>4724</v>
+      </c>
+      <c r="E3531" s="3" t="s">
+        <v>4787</v>
+      </c>
+      <c r="F3531" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3531">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3532" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3532" t="s">
+        <v>4725</v>
+      </c>
+      <c r="E3532" s="3" t="s">
+        <v>4788</v>
+      </c>
+      <c r="F3532" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3532">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3533" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3533" t="s">
+        <v>4726</v>
+      </c>
+      <c r="E3533" s="3" t="s">
+        <v>4789</v>
+      </c>
+      <c r="F3533" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3533">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3534" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3534" t="s">
+        <v>4727</v>
+      </c>
+      <c r="E3534" s="3" t="s">
+        <v>4790</v>
+      </c>
+      <c r="F3534" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3534">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3535" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3535" t="s">
+        <v>4728</v>
+      </c>
+      <c r="E3535" s="3" t="s">
+        <v>4791</v>
+      </c>
+      <c r="F3535" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3535">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3536" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3536" t="s">
+        <v>4729</v>
+      </c>
+      <c r="E3536" s="3" t="s">
+        <v>4792</v>
+      </c>
+      <c r="F3536" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3536">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3537" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3537" t="s">
+        <v>4730</v>
+      </c>
+      <c r="E3537" s="3" t="s">
+        <v>4793</v>
+      </c>
+      <c r="F3537" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3537">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3538" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3538" t="s">
+        <v>4731</v>
+      </c>
+      <c r="E3538" s="3" t="s">
+        <v>4794</v>
+      </c>
+      <c r="F3538" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3538">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3539" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3539" t="s">
+        <v>4732</v>
+      </c>
+      <c r="E3539" s="3" t="s">
+        <v>4795</v>
+      </c>
+      <c r="F3539" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3539">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3540" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3540" t="s">
+        <v>2586</v>
+      </c>
+      <c r="E3540" s="3" t="s">
+        <v>4796</v>
+      </c>
+      <c r="F3540" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3540">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3541" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3541" t="s">
+        <v>4733</v>
+      </c>
+      <c r="E3541" s="3" t="s">
+        <v>4797</v>
+      </c>
+      <c r="F3541" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3541">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3542" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3542" t="s">
+        <v>4734</v>
+      </c>
+      <c r="E3542" s="3" t="s">
+        <v>4798</v>
+      </c>
+      <c r="F3542" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3542">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3543" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3543" t="s">
+        <v>4735</v>
+      </c>
+      <c r="E3543" s="3" t="s">
+        <v>4799</v>
+      </c>
+      <c r="F3543" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3543">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3544" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3544" t="s">
+        <v>4681</v>
+      </c>
+      <c r="E3544" s="3" t="s">
+        <v>4800</v>
+      </c>
+      <c r="F3544" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3544">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3545" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3545" t="s">
+        <v>4681</v>
+      </c>
+      <c r="E3545" s="3" t="s">
+        <v>4695</v>
+      </c>
+      <c r="F3545" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3545">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3546" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3546" t="s">
+        <v>4736</v>
+      </c>
+      <c r="E3546" s="3" t="s">
+        <v>4786</v>
+      </c>
+      <c r="F3546" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3546">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3547" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3547" t="s">
+        <v>4737</v>
+      </c>
+      <c r="E3547" s="3" t="s">
+        <v>4801</v>
+      </c>
+      <c r="F3547" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3547">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3548" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3548" t="s">
+        <v>4738</v>
+      </c>
+      <c r="E3548" s="3" t="s">
+        <v>4802</v>
+      </c>
+      <c r="F3548" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3548">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3549" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3549" t="s">
+        <v>2490</v>
+      </c>
+      <c r="E3549" s="3" t="s">
+        <v>4775</v>
+      </c>
+      <c r="F3549" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3549">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3550" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3550" t="s">
+        <v>4739</v>
+      </c>
+      <c r="E3550" s="3" t="s">
+        <v>4803</v>
+      </c>
+      <c r="F3550" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3550">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3551" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3551" t="s">
+        <v>4740</v>
+      </c>
+      <c r="E3551" s="3" t="s">
+        <v>4804</v>
+      </c>
+      <c r="F3551" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3551">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3552" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3552" t="s">
+        <v>4741</v>
+      </c>
+      <c r="E3552" s="3" t="s">
+        <v>4804</v>
+      </c>
+      <c r="F3552" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3552">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3553" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3553" t="s">
+        <v>4742</v>
+      </c>
+      <c r="E3553" s="3" t="s">
+        <v>4805</v>
+      </c>
+      <c r="F3553" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3553">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3554" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3554" t="s">
+        <v>4743</v>
+      </c>
+      <c r="E3554" s="3" t="s">
+        <v>4806</v>
+      </c>
+      <c r="F3554" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3554">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3555" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3555" t="s">
+        <v>4744</v>
+      </c>
+      <c r="E3555" s="3" t="s">
+        <v>4807</v>
+      </c>
+      <c r="F3555" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3555">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3556" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3556" t="s">
+        <v>4745</v>
+      </c>
+      <c r="E3556" s="3" t="s">
+        <v>4808</v>
+      </c>
+      <c r="F3556" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3556">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3557" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3557" t="s">
+        <v>4746</v>
+      </c>
+      <c r="E3557" s="3" t="s">
+        <v>4809</v>
+      </c>
+      <c r="F3557" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3557">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3558" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3558" t="s">
+        <v>4747</v>
+      </c>
+      <c r="E3558" s="3" t="s">
+        <v>4810</v>
+      </c>
+      <c r="F3558" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3558">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3559" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3559" t="s">
+        <v>2621</v>
+      </c>
+      <c r="E3559" s="3" t="s">
+        <v>4811</v>
+      </c>
+      <c r="F3559" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3559">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3560" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3560" t="s">
+        <v>4748</v>
+      </c>
+      <c r="E3560" s="3" t="s">
+        <v>4812</v>
+      </c>
+      <c r="F3560" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3560">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3561" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3561" t="s">
+        <v>4749</v>
+      </c>
+      <c r="E3561" s="3" t="s">
+        <v>4804</v>
+      </c>
+      <c r="F3561" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3561">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3562" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3562" t="s">
+        <v>4750</v>
+      </c>
+      <c r="E3562" s="3" t="s">
+        <v>4813</v>
+      </c>
+      <c r="F3562" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3562">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3563" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3563" t="s">
+        <v>4751</v>
+      </c>
+      <c r="E3563" s="3" t="s">
+        <v>4814</v>
+      </c>
+      <c r="F3563" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3563">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -63191,8 +64828,94 @@
     <hyperlink ref="E2952" r:id="rId8" xr:uid="{6951A13E-4A32-4321-A75D-4DE8BA200BBA}"/>
     <hyperlink ref="E2953" r:id="rId9" xr:uid="{397B8F52-781A-44AD-AD28-4274EA07ADAF}"/>
     <hyperlink ref="E2954:E3477" r:id="rId10" display="https://doi.org/10.1007/s11095-008-9609-0" xr:uid="{B055B359-CAB1-4F72-A59A-3E014BB7DB23}"/>
+    <hyperlink ref="E3478" r:id="rId11" xr:uid="{6E7A12AE-C2AA-408A-8702-5FBB10ABEE27}"/>
+    <hyperlink ref="E3479" r:id="rId12" xr:uid="{D2005CDF-639B-490E-BB17-8A2EC306A51F}"/>
+    <hyperlink ref="E3480" r:id="rId13" xr:uid="{CA219E61-C923-4DC9-B2EA-521BAD18E321}"/>
+    <hyperlink ref="E3481" r:id="rId14" xr:uid="{AD13E94D-CE05-4C49-B592-84DA6EBA077E}"/>
+    <hyperlink ref="E3483" r:id="rId15" xr:uid="{7D8047E2-BFFD-40CD-BD00-24253EC8893C}"/>
+    <hyperlink ref="E3482" r:id="rId16" xr:uid="{23F2124B-6443-441D-BC5B-9CE77EAC457C}"/>
+    <hyperlink ref="E3485" r:id="rId17" xr:uid="{518F37BD-47B8-418C-890E-7E9DB9A8C167}"/>
+    <hyperlink ref="E3484" r:id="rId18" xr:uid="{2AADC57F-63BE-4489-AE4E-B276E7EFC256}"/>
+    <hyperlink ref="E3486" r:id="rId19" xr:uid="{20CBA591-9630-4BBB-B513-8640B7E6EF1E}"/>
+    <hyperlink ref="E3487" r:id="rId20" xr:uid="{C82EFB48-E395-40F1-B239-0D2EDEBBC089}"/>
+    <hyperlink ref="E3488" r:id="rId21" xr:uid="{03C2133B-E43B-4D16-A3BB-F5C8E5E3DD50}"/>
+    <hyperlink ref="E3489" r:id="rId22" xr:uid="{E4760DF9-E82C-446D-9B00-67F59BE7B3AA}"/>
+    <hyperlink ref="E3491" r:id="rId23" xr:uid="{AC4BC951-E91D-4020-9295-E4F7C79C34DF}"/>
+    <hyperlink ref="E3490" r:id="rId24" xr:uid="{57271BA2-A6F5-4AEC-8E65-794BD352C216}"/>
+    <hyperlink ref="E3493" r:id="rId25" xr:uid="{8C1D1660-0B83-44F4-B882-CCC048301BE4}"/>
+    <hyperlink ref="E3492" r:id="rId26" xr:uid="{33A908E2-725A-4D30-9A3B-A8ED8E13134B}"/>
+    <hyperlink ref="E3494" r:id="rId27" xr:uid="{CCB012E7-3A3C-4A7A-84BA-B834259CE42E}"/>
+    <hyperlink ref="E3495" r:id="rId28" xr:uid="{1251CCBF-AAB8-4D5B-A3FD-E035301BFC9C}"/>
+    <hyperlink ref="E3496" r:id="rId29" xr:uid="{349634E3-1ED7-461F-BC36-D0F2CF21ECB9}"/>
+    <hyperlink ref="E3497" r:id="rId30" xr:uid="{4BD048ED-C821-4CAB-941D-AFBD4EE7979F}"/>
+    <hyperlink ref="E3498" r:id="rId31" xr:uid="{B1A8BDE0-3888-4A82-A94F-5BEA3E64F509}"/>
+    <hyperlink ref="E3499" r:id="rId32" xr:uid="{A5304D56-473E-4035-B63C-85D43752F87F}"/>
+    <hyperlink ref="E3500" r:id="rId33" xr:uid="{EBE0ACE9-9A4E-4C57-9BAE-A5D845A167AA}"/>
+    <hyperlink ref="E3501" r:id="rId34" xr:uid="{023D9ED5-F638-4E3B-AF93-B78B523E1B47}"/>
+    <hyperlink ref="E3502" r:id="rId35" xr:uid="{323F791F-3BC9-45A9-861E-B90B995C6657}"/>
+    <hyperlink ref="E3503" r:id="rId36" xr:uid="{AEE12D91-5662-49A1-9EDB-095A2A17E3F5}"/>
+    <hyperlink ref="E3504" r:id="rId37" xr:uid="{17C96721-2C75-498A-A218-0646924E6C7A}"/>
+    <hyperlink ref="E3505" r:id="rId38" xr:uid="{8F2AA80B-F659-4EAB-AC1E-31C05643D6B7}"/>
+    <hyperlink ref="E3506" r:id="rId39" xr:uid="{0FEAD04C-480A-4E28-AD21-1C4CB58E198E}"/>
+    <hyperlink ref="E3507" r:id="rId40" xr:uid="{574F58DF-CEDA-4546-B8BA-35D261A8083E}"/>
+    <hyperlink ref="E3508" r:id="rId41" xr:uid="{CB299107-98C8-4D3D-B281-85F7882560FB}"/>
+    <hyperlink ref="E3509" r:id="rId42" xr:uid="{C82C5EAF-A193-41F0-9C25-42FF1E61DD98}"/>
+    <hyperlink ref="E3510" r:id="rId43" xr:uid="{A00AB947-E933-4B1F-8D1F-53AC200C1159}"/>
+    <hyperlink ref="E3511" r:id="rId44" xr:uid="{28AF1437-4ADA-4318-87BB-AE3D6DB68F87}"/>
+    <hyperlink ref="E3512" r:id="rId45" xr:uid="{265CC8F8-DF5F-4D6B-8692-6265D02F70CE}"/>
+    <hyperlink ref="E3513" r:id="rId46" xr:uid="{611E2FC6-D09B-442D-8ADB-0E96AF8E3848}"/>
+    <hyperlink ref="E3514" r:id="rId47" xr:uid="{71D11E6F-20A0-4F1B-86BF-D9319F5C7F5F}"/>
+    <hyperlink ref="E3515" r:id="rId48" xr:uid="{0C3CD8CE-38A0-4588-8E5D-7C2A0D4C3927}"/>
+    <hyperlink ref="E3516" r:id="rId49" xr:uid="{CB02E515-F910-47CB-ABA5-07819621C207}"/>
+    <hyperlink ref="E3517" r:id="rId50" xr:uid="{B5BB9767-1C0D-4850-9139-1B5BDE8D50A3}"/>
+    <hyperlink ref="E3518" r:id="rId51" xr:uid="{5ED5A2AE-C810-4FC0-924A-6870742371E0}"/>
+    <hyperlink ref="E3519" r:id="rId52" xr:uid="{87B81050-C4BA-4D3A-9FF1-FC9CFA4C6516}"/>
+    <hyperlink ref="E3520" r:id="rId53" xr:uid="{C5135342-95DB-4E8D-AC1F-57FF0C13A87D}"/>
+    <hyperlink ref="E3521" r:id="rId54" xr:uid="{9B6637DA-47B4-42F7-A49A-632A1185DF86}"/>
+    <hyperlink ref="E3522" r:id="rId55" xr:uid="{D5CF0536-5686-4546-96D0-CF85A7BEF7A2}"/>
+    <hyperlink ref="E3523" r:id="rId56" xr:uid="{0DDF5202-F662-4035-BC32-B48831C47F99}"/>
+    <hyperlink ref="E3524" r:id="rId57" xr:uid="{7DBCA486-B6FF-4978-B1D6-17C6BD8B305D}"/>
+    <hyperlink ref="E3525" r:id="rId58" xr:uid="{7CB3FE74-61A3-4D66-8E7A-4DF9BEB0A120}"/>
+    <hyperlink ref="E3526" r:id="rId59" xr:uid="{17D2DF64-BD00-439A-BC0E-F50E6E98AF62}"/>
+    <hyperlink ref="E3527" r:id="rId60" xr:uid="{D8326D57-459C-4D96-B531-BDB50C520CA9}"/>
+    <hyperlink ref="E3528" r:id="rId61" xr:uid="{BDFAF11A-D09F-45B5-ADEA-4C3DE62ED775}"/>
+    <hyperlink ref="E3529" r:id="rId62" xr:uid="{27492C41-1364-4FFB-8888-B9FBB6335075}"/>
+    <hyperlink ref="E3530" r:id="rId63" xr:uid="{5EC0B657-90A7-4FC6-BE31-E2EF1763D4D6}"/>
+    <hyperlink ref="E3531" r:id="rId64" xr:uid="{D3454EE9-7494-455D-A959-D99301F7BA1E}"/>
+    <hyperlink ref="E3532" r:id="rId65" xr:uid="{3985D634-8973-4B56-9389-E7A3B4E502D1}"/>
+    <hyperlink ref="E3533" r:id="rId66" xr:uid="{AFEF0EB7-9326-4A26-956A-B8AA53FE00CB}"/>
+    <hyperlink ref="E3534" r:id="rId67" xr:uid="{6BB936A4-09BB-4E2D-951F-2D022E385D2A}"/>
+    <hyperlink ref="E3535" r:id="rId68" xr:uid="{D1C46E65-2E71-4ED8-B5CF-A4FCDD860227}"/>
+    <hyperlink ref="E3536" r:id="rId69" xr:uid="{21CAE07D-660E-4F2A-A6FD-01D660504A05}"/>
+    <hyperlink ref="E3537" r:id="rId70" xr:uid="{C904E8AA-0207-4FD1-A006-0FEFF3895231}"/>
+    <hyperlink ref="E3538" r:id="rId71" xr:uid="{006BDC12-9224-4848-B9CD-43531FCE8AF1}"/>
+    <hyperlink ref="E3539" r:id="rId72" xr:uid="{0B55CE2A-8753-4CC3-8C07-76468C5551DC}"/>
+    <hyperlink ref="E3540" r:id="rId73" xr:uid="{946429D4-CE9D-469A-A216-149E1A18627A}"/>
+    <hyperlink ref="E3541" r:id="rId74" xr:uid="{AAC4D729-8D41-4401-B770-FC057CEB848E}"/>
+    <hyperlink ref="E3542" r:id="rId75" xr:uid="{9AFD2221-53F6-4F8E-9BD0-FBD6B6E9D5FF}"/>
+    <hyperlink ref="E3543" r:id="rId76" xr:uid="{BB4479B4-CBD2-4A97-BADA-A74DB1709CC1}"/>
+    <hyperlink ref="E3544" r:id="rId77" xr:uid="{5CC4F5C3-576E-44AF-9F75-04957A85B320}"/>
+    <hyperlink ref="E3545" r:id="rId78" xr:uid="{85DB19D1-61FA-46E4-9848-D97F62140B36}"/>
+    <hyperlink ref="E3546" r:id="rId79" xr:uid="{CEF1C735-C88F-44C4-994F-6E3DD021DAD0}"/>
+    <hyperlink ref="E3547" r:id="rId80" xr:uid="{AB91A20C-64DF-49EA-AD26-C5A31E6D970F}"/>
+    <hyperlink ref="E3548" r:id="rId81" xr:uid="{4B3597D3-5AC3-41A3-8E58-6D17142FE359}"/>
+    <hyperlink ref="E3549" r:id="rId82" xr:uid="{589C2AF5-9B97-4D56-AF93-2964D1F831D4}"/>
+    <hyperlink ref="E3550" r:id="rId83" xr:uid="{65239EBB-12E6-4D9D-891E-A63E07118414}"/>
+    <hyperlink ref="E3551" r:id="rId84" xr:uid="{5887F337-4E60-41D3-8C53-9C31329B2CDE}"/>
+    <hyperlink ref="E3552" r:id="rId85" xr:uid="{DA3956B3-C1E7-4E39-88A3-41FC9D638EFB}"/>
+    <hyperlink ref="E3553" r:id="rId86" xr:uid="{8DFAA558-0E89-4E88-9F3D-3634978C2868}"/>
+    <hyperlink ref="E3554" r:id="rId87" xr:uid="{CBAE820F-64CF-42C9-B43E-6A6D86C4BEC1}"/>
+    <hyperlink ref="E3555" r:id="rId88" xr:uid="{91317E88-D3DC-40FE-8BC7-879E4EA42ABB}"/>
+    <hyperlink ref="E3556" r:id="rId89" xr:uid="{675F9362-DF8F-44B4-BE3B-4AD2BD91EED2}"/>
+    <hyperlink ref="E3557" r:id="rId90" xr:uid="{47BBD61F-9DA6-4746-BEB3-EA1B0710483C}"/>
+    <hyperlink ref="E3558" r:id="rId91" xr:uid="{507A4F82-D314-4BD6-90F2-CEA10632C6D4}"/>
+    <hyperlink ref="E3559" r:id="rId92" xr:uid="{43BE381D-CDEB-4D6E-B667-3C33A1FB6F60}"/>
+    <hyperlink ref="E3560" r:id="rId93" xr:uid="{929BF10B-C6D9-4E2D-B401-926704ED5544}"/>
+    <hyperlink ref="E3561" r:id="rId94" xr:uid="{837C0C2A-7545-4D05-808B-49853809BCCD}"/>
+    <hyperlink ref="E3562" r:id="rId95" xr:uid="{0349B9FB-05B5-4317-8619-243255C71684}"/>
+    <hyperlink ref="E3563" r:id="rId96" xr:uid="{A185F953-7A1C-4186-8364-6EB9D0F86348}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId97"/>
 </worksheet>
 </file>
--- a/Excel_Files/Dataset_Completely_Clean.xlsx
+++ b/Excel_Files/Dataset_Completely_Clean.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jogeo\Desktop\Project\Blood-Brain-Barrier-Drug-Prediction\Excel_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF22036F-DD6C-4955-BFF1-2565D9F2E938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539EA45F-A970-4A7B-95D3-B92B04E27878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AD858D13-504F-43BF-886F-F281608A3ABE}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9725" uniqueCount="3203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10496" uniqueCount="3588">
   <si>
     <t>SMILES</t>
   </si>
@@ -9646,6 +9646,1161 @@
   </si>
   <si>
     <t>C[C@H]1/C=C/C=C(\C(=O)NC2=C(C(=C3C(=C2O)C(=C(C4=C3C(=O)[C@](O4)(O/C=C/[C@@H]([C@H]([C@H]([C@@H]([C@@H]([C@@H]([C@H]1O)C)O)C)OC(=O)C)C)OC)C)C)O)O)C=NN5CCN(CC5)C)/C</t>
+  </si>
+  <si>
+    <t>C[N+]1(CCC(C1)OC(=O)C(C2CCCC2)(C3=CC=CC=C3)O)C.[Br-]</t>
+  </si>
+  <si>
+    <t>CCC1C(=O)N(CC(=O)N(C(C(=O)NC(C(=O)N(C(C(=O)NC(C(=O)NC(C(=O)N(C(C(=O)N(C(C(=O)N(C(C(=O)N(C(C(=O)N1)C(C(C)CC=CC)O)C)C(C)C)C)CC(C)C)C)CC(C)C)C)C)C)CC(C)C)C)C(C)C)CC(C)C)C)C</t>
+  </si>
+  <si>
+    <t>C[C@@H]1C[C@@H]([C@@H]2[C@H](C[C@H]([C@@](O2)(C(=O)C(=O)N3CCCC[C@H]3C(=O)O[C@@H]([C@@H]([C@H](CC(=O)[C@@H](/C=C(/C1)\C)CC=C)O)C)/C(=C/[C@@H]4CC[C@H]([C@@H](C4)OC)O)/C)O)C)OC)OC</t>
+  </si>
+  <si>
+    <t>CCOC1=CC=C(C=C1)C2=NC3=C(N2)C=C(C=C3)C4=NC5=C(N4)C=C(C=C5)N6CCN(CC6)C</t>
+  </si>
+  <si>
+    <t>CC(=O)NCC(=O)O.C1=CC(=CC=C1C(=N)N)NN=NC2=CC=C(C=C2)C(=N)N</t>
+  </si>
+  <si>
+    <t>C[C@H]([C@H]1C(=O)N[C@H](C(=O)N[C@H](C(=O)N[C@H](C(=O)N[C@@H](CSSC[C@@H](C(=O)N[C@H](C(=O)N[C@H](C(=O)N[C@H](C(=O)N[C@H](C(=O)N[C@H](C(=O)N[C@H](C(=O)N1)CCCCN)CC2=CNC3=CC=CC=C32)CC4=CC=CC=C4)CC5=CC=CC=C5)CC(=O)N)CCCCN)NC(=O)CNC(=O)[C@H](C)N)C(=O)O)CO)[C@@H](C)O)CC6=CC=CC=C6)O</t>
+  </si>
+  <si>
+    <t>C1=CC(=CC=C1C(=N)N)OCCCCCOC2=CC=C(C=C2)C(=N)N</t>
+  </si>
+  <si>
+    <t>CC1=C(C=C(C=C1)C(=O)NC2=C3C(=CC(=CC3=C(C=C2)S(=O)(=O)O)S(=O)(=O)O)S(=O)(=O)O)NC(=O)C4=CC(=CC=C4)NC(=O)NC5=CC=CC(=C5)C(=O)NC6=C(C=CC(=C6)C(=O)NC7=C8C(=CC(=CC8=C(C=C7)S(=O)(=O)O)S(=O)(=O)O)S(=O)(=O)O)C</t>
+  </si>
+  <si>
+    <t>C[N+]1(CC[C@]23[C@@H]4C(=O)CC[C@]2([C@H]1CC5=C3C(=C(C=C5)O)O4)O)CC=C.[I-]</t>
+  </si>
+  <si>
+    <t>B([C@H](CC(C)C)NC(=O)[C@H](CC1=CC=CC=C1)NC(=O)C2=NC=CN=C2)(O)O</t>
+  </si>
+  <si>
+    <t>CC[C@H](C)[C@@H](C(=O)N[C@@H](CC1=CN=CN1)C(=O)N2CCC[C@H]2C(=O)N[C@@H](CC3=CC=CC=C3)C(=O)O)NC(=O)[C@H](CC4=CC=C(C=C4)O)NC(=O)[C@H](C(C)C)NC(=O)[C@H](CCCN=C(N)N)NC(=O)[C@H](CC(=O)O)N</t>
+  </si>
+  <si>
+    <t>C1CC[C@H]2[C@@H](C1)C[C@H](N2C(=O)[C@H]3CC4=CC=CC=C4CN3C(=O)[C@H](CO)NC(=O)[C@H](CC5=CC=CS5)NC(=O)CNC(=O)[C@@H]6C[C@H](CN6C(=O)[C@@H]7CCCN7C(=O)[C@H](CCCN=C(N)N)NC(=O)[C@@H](CCCN=C(N)N)N)O)C(=O)N[C@@H](CCCN=C(N)N)C(=O)O</t>
+  </si>
+  <si>
+    <t>C(C1C2C(C(C(O1)OC3C(OC(C(C3O)O)OC4C(OC(C(C4O)O)OC5C(OC(C(C5O)O)OC6C(OC(C(C6O)O)OC7C(OC(O2)C(C7O)O)CO)CO)CO)CO)CO)O)O)O</t>
+  </si>
+  <si>
+    <t>COCCOC1=CN=CC(=C1)C2=NC=C3C=CC4=C(C3=C2)NC5=C4C(=O)N=CC5</t>
+  </si>
+  <si>
+    <t>C1=CC=C(C=C1)CC(CS)C(=O)NCC(=O)O</t>
+  </si>
+  <si>
+    <t>C1CC[N+]2(C1)[C@@H]3CC[C@H]2CC(C3)OC(=O)C(C4=CC=CC=C4)(C5=CC=CC=C5)O</t>
+  </si>
+  <si>
+    <t>C[C@@H](C(=O)N[C@@H](CC(=O)OC)C(=O)CF)NC(=O)[C@H](C(C)C)NC(=O)OCC1=CC=CC=C1</t>
+  </si>
+  <si>
+    <t>CC[C@@H](C)[C@@H](C(=O)N[C@H](C)C(=O)N[C@@H](CC1=CNC2=CC=CC=C21)C(=O)N[C@@H](CC(C)C)C(=O)N[C@@H](C(C)C)C(=O)N[C@@H](CCCCN)C(=O)NCC(=O)N[C@@H](CCCNC(=N)N)C(=O)N)NC(=O)[C@H](CC3=CC=CC=C3)NC(=O)[C@H](CCC(=O)O)NC(=O)[C@H](CCCCN)NC(=O)[C@@H](C)NC(=O)[C@@H](C)NC(=O)[C@H](CCC(=O)N)NC(=O)CNC(=O)[C@H](CCC(=O)O)NC(=O)[C@H](CC(C)C)NC(=O)[C@H](CC4=CC=C(C=C4)O)NC(=O)[C@H](CO)NC(=O)[C@H](CO)NC(=O)[C@H](C(C)C)NC(=O)[C@H](CC(=O)O)NC(=O)[C@H](CO)NC(=O)[C@H]([C@H](C)O)NC(=O)[C@H](CC5=CC=CC=C5)NC(=O)[C@H]([C@H](C)O)NC(=O)CNC(=O)[C@H](CCC(=O)O)NC(=O)CNC(=O)[C@H](CC6=CN=CN6)N</t>
+  </si>
+  <si>
+    <t>CC1=C(C(=C(C(=N1)N=NC2=C(C=C(C=C2)S(=O)(=O)O)S(=O)(=O)O)COP(=O)(O)O)C=O)O</t>
+  </si>
+  <si>
+    <t>CN([C@H](CN1CC[C@@H](C1)O)C2=CC=CC=C2)C(=O)C(C3=CC=CC=C3)C4=CC=CC=C4</t>
+  </si>
+  <si>
+    <t>CN=NNC1=C(NC=N1)C(=O)N</t>
+  </si>
+  <si>
+    <t>CN1CCN(CC1)C2CCN(CC2)C(=O)C3=CC(=C(C=C3)NC4=NC=C5C(=N4)N(C6=CC=CC=C6C(=O)N5C)C)OC</t>
+  </si>
+  <si>
+    <t>CC[C@H](C)[C@H]1C(=O)N[C@H]2CSSC[C@@H](C(=O)N[C@@H](CSSC[C@@H](C(=O)NCC(=O)N[C@H](C(=O)N[C@H](C(=O)N[C@H](C(=O)N[C@H](C(=O)N[C@H](C(=O)N[C@H](C(=O)N[C@H](C(=O)N[C@H](C(=O)N[C@H](C(=O)N[C@H](C(=O)N[C@@H](CSSC[C@H](NC(=O)[C@@H](NC(=O)[C@@H](NC(=O)[C@@H](NC(=O)[C@@H](NC(=O)[C@@H](NC(=O)[C@@H](NC(=O)[C@@H](NC(=O)[C@@H](NC2=O)CO)CC(C)C)CC3=CC=C(C=C3)O)CCC(=O)N)CC(C)C)CCC(=O)O)CC(=O)N)CC4=CC=C(C=C4)O)C(=O)N[C@@H](CC(=O)N)C(=O)O)C(=O)NCC(=O)N[C@@H](CCC(=O)O)C(=O)N[C@@H](CCCNC(=N)N)C(=O)NCC(=O)N[C@@H](CC5=CC=CC=C5)C(=O)N[C@@H](CC6=CC=CC=C6)C(=O)N[C@@H](CC7=CC=C(C=C7)O)C(=O)N[C@@H]([C@@H](C)O)C(=O)N8CCC[C@H]8C(=O)N[C@@H](CCCCN)C(=O)N[C@@H](C)C(=O)O)C(C)C)CC(C)C)CC9=CC=C(C=C9)O)CC(C)C)C)CCC(=O)O)C(C)C)CC(C)C)CC2=CN=CN2)CO)NC(=O)[C@H](CC(C)C)NC(=O)[C@H](CC2=CN=CN2)NC(=O)[C@H](CCC(=O)N)NC(=O)[C@H](CC(=O)N)NC(=O)[C@H](C(C)C)NC(=O)[C@H](CC2=CC=CC=C2)N)C(=O)N[C@H](C(=O)N[C@H](C(=O)N1)CO)[C@@H](C)O)NC(=O)[C@H](CCC(=O)N)NC(=O)[C@H](CCC(=O)O)NC(=O)[C@H](C(C)C)NC(=O)[C@H]([C@@H](C)CC)NC(=O)CN</t>
+  </si>
+  <si>
+    <t>C(C[C@H](C(=O)O)N)CP(=O)(O)O</t>
+  </si>
+  <si>
+    <t>CNCC(C1=CC(=C(C=C1)O)O)O</t>
+  </si>
+  <si>
+    <t>C[C@@H]1C[C@@H]2CC[C@H]3C(=C)C[C@@H](O3)CC[C@]45C[C@@H]6[C@H](O4)[C@H]7[C@@H](O6)[C@@H](O5)[C@@H]8[C@@H](O7)CC[C@@H](O8)CC(=O)C[C@H]9[C@H](C[C@H](C1=C)O2)O[C@@H]([C@@H]9OC)C[C@@H](CN)O</t>
+  </si>
+  <si>
+    <t>CC(C)C[C@@H](C(=O)N[C@@H](CCC1=CC=CC=C1)/C=C/S(=O)(=O)C2=CC=CC=C2)NC(=O)N3CCOCC3</t>
+  </si>
+  <si>
+    <t>CCC(C)[C@@H]1[C@H](C=C[C@@]2(O1)C[C@@H]3C[C@H](O2)C/C=C(/[C@H]([C@H](/C=C/C=C/4\CO[C@H]5[C@@]4([C@@H](C=C([C@H]5O)C)C(=O)O3)O)C)O[C@H]6C[C@@H]([C@H]([C@@H](O6)C)O[C@H]7C[C@@H]([C@H]([C@@H](O7)C)O)OC)OC)\C)C</t>
+  </si>
+  <si>
+    <t>C[C@H]1CN(CC[C@@]1(C)C2=CC(=CC=C2)O)C[C@H](CC3=CC=CC=C3)C(=O)NCC(=O)O</t>
+  </si>
+  <si>
+    <t>C(CO)O</t>
+  </si>
+  <si>
+    <t>CN(CCOC1=CC=C(C=C1)CC2C(=O)NC(=O)S2)C3=CC=CC=N3</t>
+  </si>
+  <si>
+    <t>CCCN1C(=O)C2=C(NC1=O)N=C(N2)C3=CC=C(C=C3)S(=O)(=O)O</t>
+  </si>
+  <si>
+    <t>COC1=CC=CC(=C1)C2=CC=C(C=C2)[C@H](C(F)(F)F)OC3=NC(=NC(=C3)C4=CC=C(C=C4)C[C@@H](C(=O)O)N)N</t>
+  </si>
+  <si>
+    <t>C1=NC(=C2C(=N1)N(C=N2)[C@H]3[C@@H]([C@@H]([C@H](O3)CO)O)O)N</t>
+  </si>
+  <si>
+    <t>C[C@H]1/C=C/C=C(\C(=O)NC2=C(C(=C3C(=C2O)C(=C(C4=C3C(=O)[C@](O4)(O/C=C/[C@@H]([C@H]([C@H]([C@@H]([C@@H]([C@@H]([C@H]1O)C)O)C)OC(=O)C)C)OC)C)C)O)O)/C=N/N5CCN(CC5)C)/C</t>
+  </si>
+  <si>
+    <t>CC(C)(C1=CC=C(C=C1)C(CCCN2CCC(CC2)C(C3=CC=CC=C3)(C4=CC=CC=C4)O)O)C(=O)O</t>
+  </si>
+  <si>
+    <t>CC1=C2[C@H](C(=O)[C@@]3([C@H](C[C@@H]4[C@]([C@H]3[C@@H]([C@@](C2(C)C)(C[C@@H]1OC(=O)[C@@H]([C@H](C5=CC=CC=C5)NC(=O)C6=CC=CC=C6)O)O)OC(=O)C7=CC=CC=C7)(CO4)OC(=O)C)O)C)OC(=O)C</t>
+  </si>
+  <si>
+    <t>CCS(=O)(=O)N[C@H](CC1=CC=C(C=C1)C2=CC=CC=C2)C(=O)N[C@@H](CCC(=O)N)C(=O)NCC3=CC=C(C=C3)C(=N)N</t>
+  </si>
+  <si>
+    <t>C[N+]1(CCN(CC1)C2=NC3=C(C=CC(=C3)Cl)NC4=CC=CC=C42)[O-]</t>
+  </si>
+  <si>
+    <t>CN(C)C(=O)OC1=CC=CC(=C1)[N+](C)(C)C</t>
+  </si>
+  <si>
+    <t>C1=CC=C2C(=C1)N=C3C4=C(C5=C(C3=N2)C=CC=N5)N=CC=C4.C1=CC2=NC=CN=C2C3=NC=CN=C31.C1=CC2=NC=CN=C2C3=NC=CN=C31.[Ru]</t>
+  </si>
+  <si>
+    <t>CN(C)CC[C@H](CSC1=CC=CC=C1)NC2=C(C=C(C=C2)S(=O)(=O)NC(=O)C3=CC=C(C=C3)N4CCN(CC4)CC5=CC=CC=C5C6=CC=C(C=C6)Cl)[N+](=O)[O-]</t>
+  </si>
+  <si>
+    <t>C(C(=O)C(=O)O)Br</t>
+  </si>
+  <si>
+    <t>C1=CC=C2C(=C1)C(=O)C=C(N2)C(=O)O</t>
+  </si>
+  <si>
+    <t>C1CC2=C(C=CC(=C2)Cl)C(=C3CCNCC3)C4=C1C=CC=N4</t>
+  </si>
+  <si>
+    <t>CN1CCC2=CC3=C(C=C2[C@H]1[C@H]4C5=C(C6=C(C=C5)OCO6)C(=O)O4)OCO3</t>
+  </si>
+  <si>
+    <t>COC1=C(C=C(C=C1)S(=O)(=O)NC2=NC(=CS2)C3=CC(=CC=C3)[N+](=O)[O-])OC</t>
+  </si>
+  <si>
+    <t>C1=C(NC=N1)CCN</t>
+  </si>
+  <si>
+    <t>CNCCC1=CN=CN1</t>
+  </si>
+  <si>
+    <t>CC1=NN(C(=O)C1)C2=CC=CC=C2</t>
+  </si>
+  <si>
+    <t>CNC[C@@H](C1=CC(=CC=C1)O)O</t>
+  </si>
+  <si>
+    <t>CC(=O)N(CCCCCNC(=O)CCC(=O)N(CCCCCNC(=O)CCC(=O)N(CCCCCN)O)O)O</t>
+  </si>
+  <si>
+    <t>C([C@@H]([C@H]([C@H]([C@@H]([C@@H](CO)O)O)O)NC(=O)CO)O)C(=O)C(=O)O</t>
+  </si>
+  <si>
+    <t>C1=CC2=C(C=C1O)C(=CN2)CCN</t>
+  </si>
+  <si>
+    <t>CCCC[C@@H](C(=O)N[C@@H](C)C(=O)N[C@@H](CCCNC(=N)N)C(=O)N[C@@H](C)C(=O)N[C@@H](CCC(=O)O)C(=O)N[C@@H](CCC(=O)N)C(=O)N[C@@H](CC(C)C)C(=O)N[C@@H](C)C(=O)N[C@@H](CCC(=O)N)C(=O)N[C@H]1CCC(=O)NCCCC[C@H](NC(=O)[C@@H](NC(=O)[C@@H](NC1=O)C)CC2=CNC=N2)C(=O)N[C@@H](CC(=O)N)C(=O)N[C@@H](CCCNC(=N)N)C(=O)N[C@@H](CCCCN)C(=O)N[C@@H](CC(C)C)C(=O)N[C@@H](CCCC)C(=O)N[C@@H](CCC(=O)O)C(=O)N[C@@H]([C@@H](C)CC)C(=O)N[C@@H]([C@@H](C)CC)C(=O)N)NC(=O)[C@H](CCC(=O)O)NC(=O)[C@H](CC(C)C)NC(=O)[C@H](C(C)C)NC(=O)[C@H](CCC(=O)O)NC(=O)[C@H](CCCNC(=N)N)NC(=O)[C@H](CC(C)C)NC(=O)[C@H](CC(C)C)NC(=O)[C@H](CC3=CNC=N3)NC(=O)[C@@H](CC4=CC=CC=C4)N</t>
+  </si>
+  <si>
+    <t>CC(C)OCC1CO1</t>
+  </si>
+  <si>
+    <t>CC[C@H]1[C@H](COC1=O)CC2=CN=CN2C</t>
+  </si>
+  <si>
+    <t>C1CN(CC2=C1C(=C(S2)NC(=O)C3=CC(=C(C=C3Cl)Cl)S(=O)(=O)N4CCOCC4)C#N)CC5=CC=C(C=C5)O</t>
+  </si>
+  <si>
+    <t>CC1=CN(C(=O)NC1=O)[C@H]2[C@@H]([C@@H]([C@H](O2)CO)OP(=S)(O)OC[C@@H]3[C@H]([C@H]([C@@H](O3)N4C=C(C(=NC4=O)N)C)OCCOC)OP(=S)(O)OC[C@@H]5[C@H]([C@H]([C@@H](O5)N6C=NC7=C(N=CN=C76)N)OCCOC)OP(=S)(O)OC[C@@H]8[C@H]([C@H]([C@@H](O8)N9C=C(C(=NC9=O)N)C)OCCOC)OP(=S)(O)OC[C@@H]1[C@H]([C@H]([C@@H](O1)N1C=C(C(=O)NC1=O)C)OCCOC)OP(=S)(O)OC[C@@H]1[C@H]([C@H]([C@@H](O1)N1C=C(C(=O)NC1=O)C)OCCOC)OP(=S)(O)OC[C@@H]1[C@H]([C@H]([C@@H](O1)N1C=C(C(=O)NC1=O)C)OCCOC)OP(=S)(O)OC[C@@H]1[C@H]([C@H]([C@@H](O1)N1C=C(C(=NC1=O)N)C)OCCOC)OP(=S)(O)OC[C@@H]1[C@H]([C@H]([C@@H](O1)N1C=NC2=C(N=CN=C21)N)OCCOC)OP(=S)(O)OC[C@@H]1[C@H]([C@H]([C@@H](O1)N1C=C(C(=O)NC1=O)C)OCCOC)OP(=S)(O)OC[C@@H]1[C@H]([C@H]([C@@H](O1)N1C=NC2=C(N=CN=C21)N)OCCOC)OP(=S)(O)OC[C@@H]1[C@H]([C@H]([C@@H](O1)N1C=NC2=C(N=CN=C21)N)OCCOC)OP(=S)(O)OC[C@@H]1[C@H]([C@H]([C@@H](O1)N1C=C(C(=O)NC1=O)C)OCCOC)OP(=S)(O)OC[C@@H]1[C@H]([C@H]([C@@H](O1)N1C=NC2=C1N=C(NC2=O)N)OCCOC)OP(=S)(O)OC[C@@H]1[C@H]([C@H]([C@@H](O1)N1C=C(C(=NC1=O)N)C)OCCOC)OP(=S)(O)OC[C@@H]1[C@H]([C@H]([C@@H](O1)N1C=C(C(=O)NC1=O)C)OCCOC)OP(=S)(O)OC[C@@H]1[C@H]([C@H]([C@@H](O1)N1C=NC2=C1N=C(NC2=O)N)OCCOC)OP(=S)(O)OC[C@@H]1[C@H]([C@H]([C@@H](O1)N1C=NC2=C1N=C(NC2=O)N)OCCOC)O)OCCOC</t>
+  </si>
+  <si>
+    <t>CC(C)C[C@@H](C(=O)N)NC(=O)[C@H](CC(C)C)NC(=O)[C@@H](CC1=CNC2=CC=CC=C21)NC(=O)[C@H](CC3=CC=CC=C3)NC(=O)[C@@H](CC4=CNC5=CC=CC=C54)NC(=O)CC6=CC=C(C=C6)O</t>
+  </si>
+  <si>
+    <t>CC(C)C[C@@H](CN[C@@H](CC(C)C)C(=O)N)NC(=O)[C@@H](CC1=CNC2=CC=CC=C21)NC(=O)[C@H](CC3=CC=CC=C3)NC(=O)[C@@H](CC4=CNC5=CC=CC=C54)NC(=O)[C@@H](CC6=CC=CC=C6)NC</t>
+  </si>
+  <si>
+    <t>CC(C)C[C@@H](C(=O)N)NC(=O)C(CC(C)C)NC(=O)[C@@H](CC1=CNC2=CC=CC=C21)NC(=O)[C@H](CC3=CC=CC=C3)NC(=O)[C@@H](CC4=CNC5=CC=CC=C54)NC(=O)C(CCC(=O)N)NC(=O)[C@H](CCC(=O)N)NC(=O)C6CCCN6C(=O)[C@H](CCCCN)NC(=O)C7CCCN7C(=O)[C@@H](CCCN=C(N)N)N</t>
+  </si>
+  <si>
+    <t>CCCC[C@@H](C(=O)N(C(=O)[C@@H]1CCCN1C(=O)[C@@H](CCCCNC(=O)C2=CN=CC=C2)N)C(=O)[C@@H]3CCCN3C(=O)[C@H](CC4=CN=CC=C4)N)NC(=O)[C@H](CC(C)C)NC(=O)[C@@H](CC5=CNC6=CC=CC=C65)NC(=O)[C@H](CC7=CC=CC=C7)NC(=O)[C@@H](CC8=CNC9=CC=CC=C98)NC(=O)[C@H](CC(=O)N)NC(=O)[C@@H](CC1=CC(=C(C=C1)Cl)Cl)N</t>
+  </si>
+  <si>
+    <t>CC1=C(C=C(C=C1)NC(=O)C2=CC=C(C=C2)CN3CCN(CC3)C)NC4=NC=CC(=N4)C5=CN=CC=C5</t>
+  </si>
+  <si>
+    <t>C(CC(=O)[O-])C(C(=O)[O-])[NH3+]</t>
+  </si>
+  <si>
+    <t>CC1=CN(C(=O)NC1=O)C2CC(C(O2)COP(=O)(O)OC3CC(OC3COP(=O)(O)OC4CC(OC4COP(=O)(O)OC5CC(OC5COP(=O)(O)OC6CC(OC6COP(=O)(O)OC7CC(OC7COP(=O)(O)OC8CC(OC8COP(=O)(O)OC9CC(OC9COP(=O)(O)OC1CC(OC1COP(=O)(O)OC1CC(OC1COP(=O)(O)OC1CC(OC1COP(=O)(O)OC1CC(OC1CO)N1C=NC2=C(N=CN=C21)N)N1C=CC(=NC1=O)N)N1C=NC2=C(N=CN=C21)N)N1C=CC(=NC1=O)N)N1C=CC(=NC1=O)N)N1C=CC(=NC1=O)N)N1C=NC2=C(N=CN=C21)N)N1C=NC2=C(N=CN=C21)N)N1C=C(C(=O)NC1=O)C)N1C=C(C(=O)NC1=O)C)N1C=CC(=NC1=O)N)OP(=O)(O)OCC1C(CC(O1)N1C=NC2=C1N=C(NC2=O)N)OP(=O)(O)OCC1C(CC(O1)N1C=NC2=C(N=CN=C21)N)OP(=O)(O)OCC1C(CC(O1)N1C=NC2=C(N=CN=C21)N)OP(=O)(O)OCC1C(CC(O1)N1C=NC2=C(N=CN=C21)N)OP(=O)(O)OCC1C(CC(O1)N1C=NC2=C(N=CN=C21)N)OP(=O)(O)OCC1C(CC(O1)N1C=C(C(=O)NC1=O)C)OP(=O)(O)OCC1C(CC(O1)N1C=NC2=C1N=C(NC2=O)N)OP(=O)(O)OCC1C(CC(O1)N1C=NC2=C1N=C(NC2=O)N)O</t>
+  </si>
+  <si>
+    <t>C1=CC(=CC=C1C(CC(=O)O)CN)Cl</t>
+  </si>
+  <si>
+    <t>C(CC(=O)N[C@@H](CS)C(=O)NCC(=O)O)[C@@H](C(=O)O)N</t>
+  </si>
+  <si>
+    <t>CC1=C(C(=[N+](C(=C1Cl)C)[O-])Cl)C2=NOC(=N2)C3=CC(=C(C(=C3)O)O)[N+](=O)[O-]</t>
+  </si>
+  <si>
+    <t>CC[C@]1(C[C@@H](C2=C([C@H]1C(=O)OC)C(=C3C(=C2O)C(=O)C4=C(C3=O)C=CC=C4OC)O)O[C@H]5C[C@@H]([C@@H]([C@@H](O5)C)O)N(C)C)O</t>
+  </si>
+  <si>
+    <t>C(CC(=O)O)CN</t>
+  </si>
+  <si>
+    <t>CC[C@H](C)[C@@H](C(=O)N[C@@H](C)C(=O)N[C@@H](CC1=CNC2=CC=CC=C21)C(=O)N[C@@H](CC(C)C)C(=O)N[C@@H](C(C)C)C(=O)N[C@@H](CCCNC(=N)N)C(=O)NCC(=O)N[C@@H](CCCNC(=N)N)C(=O)NCC(=O)O)NC(=O)[C@H](CC3=CC=CC=C3)NC(=O)[C@H](CCC(=O)O)NC(=O)[C@H](CCCCNC(=O)COCCOCCNC(=O)COCCOCCNC(=O)CC[C@H](C(=O)O)NC(=O)CCCCCCCCCCCCCCCCC(=O)O)NC(=O)[C@H](C)NC(=O)[C@H](C)NC(=O)[C@H](CCC(=O)N)NC(=O)CNC(=O)[C@H](CCC(=O)O)NC(=O)[C@H](CC(C)C)NC(=O)[C@H](CC4=CC=C(C=C4)O)NC(=O)[C@H](CO)NC(=O)[C@H](CO)NC(=O)[C@H](C(C)C)NC(=O)[C@H](CC(=O)O)NC(=O)[C@H](CO)NC(=O)[C@H]([C@@H](C)O)NC(=O)[C@H](CC5=CC=CC=C5)NC(=O)[C@H]([C@@H](C)O)NC(=O)CNC(=O)[C@H](CCC(=O)O)NC(=O)C(C)(C)NC(=O)[C@H](CC6=CN=CN6)N</t>
+  </si>
+  <si>
+    <t>C1=CC(=CC=C1C[C@@H](C(=O)NCC(=O)N[C@@H](CCCN=C(N)N)C(=O)N[C@@H](CCCCN)C(=O)N[C@@H](CCCCN)C(=O)N[C@@H](CCCN=C(N)N)C(=O)N[C@@H](CCCN=C(N)N)C(=O)N[C@@H](CCC(=O)N)C(=O)N[C@@H](CCCN=C(N)N)C(=O)N[C@@H](CCCN=C(N)N)C(=O)N[C@@H](CCCN=C(N)N)C(=O)O)N)O</t>
+  </si>
+  <si>
+    <t>C1=C(C(=CC(=C1O)O)O)CCN</t>
+  </si>
+  <si>
+    <t>C[N+](C)(C)C[C@@H](CC(=O)[O-])O</t>
+  </si>
+  <si>
+    <t>C[C@H](CCCC(C)C)[C@H]1CC[C@@H]2[C@@]1(CC[C@H]3[C@H]2CC=C4[C@@]3(CC[C@@H](C4)O)C)C</t>
+  </si>
+  <si>
+    <t>CC[C@H](C)[C@@H]1[C@H](CC[C@@]2(O1)C[C@@H]3C[C@H](O2)C/C=C(/[C@H]([C@H](/C=C/C=C/4\CO[C@H]5[C@@]4([C@@H](C=C([C@H]5O)C)C(=O)O3)O)C)O[C@H]6C[C@@H]([C@H]([C@@H](O6)C)O[C@H]7C[C@@H]([C@H]([C@@H](O7)C)O)OC)OC)\C)C</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.4103/0974-2700.43180</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/emmm.201000102</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/1471-2407-11-124</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1371/journal.pntd.0001151</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1371/journal.pone.0023435</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3797/scipharm.1012-08</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.2147/IJNRD.S22783</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3390/ijms12107114</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.4097/kjae.2011.61.5.358</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1155/2012/251217</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1155/2012/581695</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.2147/CE.S24743</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1242/dmm.010124</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1155/2012/860923</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1155/2013/612403</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.2147/OAJU.S7233</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3892/etm.2013.1419</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.2147/IJGM.S51665</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fphys.2014.00096</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3990131/</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3390/ph7070797</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/mds.26075</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fendo.2015.00013</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fphar.2014.00284</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fnbeh.2015.00051</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.4137/BCBCR.S21176</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5217/ir.2015.13.4.306</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.apsb.2015.08.001</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s10295-015-1686-6</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1111/aas.12601</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1530/ERC-16-0140</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fnins.2016.00459</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5168823/</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/srep40214</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3748/wjg.v23.i36.6593</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fphar.2017.00913</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s11940-018-0490-9</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.tranon.2018.03.014</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fpubh.2018.00185</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fncel.2018.00226</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.2147/IJN.S170564</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fncel.2018.00293</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41531-018-0066-0</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1155/2018/9150207</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1097/CCM.0000000000003427</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3390/molecules23113019</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3390/cancers11020229</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s12883-019-1267-9</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.celrep.2019.03.079</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/prp2.499</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3390/ph12020099</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s42003-019-0520-5</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s10194-019-0984-1</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3390/biom9100562</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s12028-019-00749-w</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3390/ph12040144</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1126/sciadv.aax6646</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3390/nu12010079</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1111/nmo.13833</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3892/etm.2020.8789</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.heliyon.2020.e04557</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3390/tropicalmed5030138</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41598-020-74346-9</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3390/cancers12092682</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.2174/1570159X18666200128121920</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3390/ijms21207452</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3390/pharmaceutics12100970</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3390/jcm10061313</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3390/cells10051228</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3390/medicina57060616</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fimmu.2021.703972</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s13020-021-00468-5</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.prdoa.2020.100083</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3390/ijms22147387</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.jcmgh.2021.05.008</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.heliyon.2021.e07740</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3390/biom11081091</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3390/biomedicines9080926</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fmolb.2021.723003</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fimmu.2021.700903</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fpsyt.2021.671151</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fncel.2021.721376</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1371/journal.pone.0259044</t>
+  </si>
+  <si>
+    <t>C1CN=C(N1)NC2=C(C=C(C=C2Cl)N)Cl.Cl</t>
+  </si>
+  <si>
+    <t>C([C@@H]([C@@H]1C(=C(C(=O)O1)O)O)O)O</t>
+  </si>
+  <si>
+    <t>C([C@@H](C(=O)O)N)C(=O)O</t>
+  </si>
+  <si>
+    <t>COC1=CC=C(C=C1)CCN2CCC(CC2)NC3=NC4=CC=CC=C4N3CC5=CC=C(C=C5)F</t>
+  </si>
+  <si>
+    <t>C[N+](C)(C)CCOC(=O)N.[Cl-]</t>
+  </si>
+  <si>
+    <t>CC(=O)N(CCCCCNC(=O)CCC(=O)N(CCCCCNC(=O)CCC(=O)N(CCCCCN)O)O)O.CS(=O)(=O)O</t>
+  </si>
+  <si>
+    <t>C1=CC=C(C(=C1)N)NC(=O)C2=CC=C(C=C2)CNC3=NC=CC(=N3)C4=CN=CC=C4</t>
+  </si>
+  <si>
+    <t>C([C@@H]([C@@H]1C(=O)C(=O)C(=O)O1)O)O</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/15736415/</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/s0161-6420(88)33038-1</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1172/JCI119832</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/17948/</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/1056-8727(92)90057-r</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/0166-4328(94)00125-y</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.jconrel.2015.01.025</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s12640-014-9464-1</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1080/10611860410001701706</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.2967/jnumed.107.047308</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3390/pharmaceutics13081126</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1073/pnas.171325998</t>
+  </si>
+  <si>
+    <t>CCCC[N+]1([C@@H]2CC(C[C@H]1[C@H]3[C@@H]2O3)OC(=O)[C@H](CO)C4=CC=CC=C4)C.[Br-]</t>
+  </si>
+  <si>
+    <t>C[N+]1=CC=C(C=C1)C2=CC=CC=C2</t>
+  </si>
+  <si>
+    <t>CN1C2=C(C(=O)N(C1=O)C)NC(=N2)C3=CC=C(C=C3)S(=O)(=O)O</t>
+  </si>
+  <si>
+    <t>C[N+]1(CC2=C(C1)C(=C(C(=C2Cl)Cl)Cl)Cl)CC[N+](C)(C)C</t>
+  </si>
+  <si>
+    <t>C[N+]1([C@H]2CC[C@@H]1[C@H]([C@H](C2)OC(=O)C3=CC=CC=C3)C(=O)OC)C.[I-]</t>
+  </si>
+  <si>
+    <t>CCC1C(=O)N(CC(=O)N(C(C(=O)NC(C(=O)N(C(C(=O)NC(C(=O)NC(C(=O)N(C(C(=O)N(C(C(=O)N(C(C(=O)N(C(C(=O)N1)[C@H]([C@H](C)C/C=C\C)O)C)C(C)C)C)CC(C)C)C)CC(C)C)C)C)C)CC(C)C)C)C(C)C)CC(C)C)C)C</t>
+  </si>
+  <si>
+    <t>C1CN(CC2=CC=CC=C21)C(=N)N</t>
+  </si>
+  <si>
+    <t>CC[C@H](C)[C@@H](C(=O)N[C@@H]([C@@H](C)CC)C(=O)N[C@@H](CC1=CNC2=CC=CC=C21)C(=O)O)NC(=O)[C@H](CC(=O)O)NC(=O)[C@H](CC(C)C)NC(=O)[C@H](CC3=CN=CN3)NC(=O)[C@@H]4CSSC[C@@H](C(=O)N[C@H](C(=O)N[C@H]5CSSC[C@@H](C(=O)N[C@H](C(=O)N[C@H](C(=O)N[C@H](C(=O)N4)CC6=CC=CC=C6)CC7=CC=C(C=C7)O)C(C)C)NC(=O)[C@@H](NC(=O)[C@@H](NC(=O)[C@@H](NC(=O)[C@@H](NC(=O)[C@@H](NC(=O)[C@@H](NC(=O)[C@@H](NC5=O)CO)CO)CC(C)C)CCSC)CC(=O)O)CCCCN)CCC(=O)O)CO)N</t>
+  </si>
+  <si>
+    <t>C[C@@H](C(=O)NC1=C(C(=C(C(=C1I)C(=O)NC(CO)CO)I)C(=O)NC(CO)CO)I)O</t>
+  </si>
+  <si>
+    <t>CC(C)(C)C1=CC(=C(C(=C1)C(C)(C)C)O)CN(CCN(C)C)CC2=C3C=CC=CC3=CC4=CC=CC=C42</t>
+  </si>
+  <si>
+    <t>C[N+]1(CC[C@]23[C@@H]4C(=O)CC[C@]2([C@H]1CC5=C3C(=C(C=C5)O)O4)O)CC6CC6</t>
+  </si>
+  <si>
+    <t>CCN(CC)CCNC(=O)C1=CC(=C(C=C1OC)N)Cl</t>
+  </si>
+  <si>
+    <t>CC(C)(C)NCC(COC1=CC=CC2=C1C[C@@H]([C@@H](C2)O)O)O</t>
+  </si>
+  <si>
+    <t>CC(C)(C1=NC(=NO1)C2=CC=CC=C2)NC(=O)C3=C([C@H]4[C@@]56CCN([C@@H]([C@@]5(C3)O)CC7=C6C(=C(C=C7)O)O4)CC8CC8)O</t>
+  </si>
+  <si>
+    <t>C[N+]1(CC[C@]23[C@@H]4[C@@H]1CC5=C2C(=C(C=C5)O)O[C@H]3[C@H](C=C4)O)C</t>
+  </si>
+  <si>
+    <t>C[C@@H]1C(=O)N([C@H](C(=O)O[C@@H](C(=O)N([C@H](C(=O)O[C@@H](C(=O)N([C@H](C(=O)O[C@@H](C(=O)N([C@H](C(=O)O1)CC(C)C)C)CC2=CC=CC=C2)CC(C)C)C)C)CC(C)C)C)CC3=CC=CC=C3)CC(C)C)C</t>
+  </si>
+  <si>
+    <t>CN1CCN(CC1)CC(=O)N2C3=CC=CC=C3C(=O)NC4=C2N=CC=C4</t>
+  </si>
+  <si>
+    <t>CC(C)NCC(COC1=CC=C(C=C1)NC(=O)C)O</t>
+  </si>
+  <si>
+    <t>COC1=C(C=C(C=C1)Cl)S(=O)(=O)NC2=CN=CC(=C2)C(=O)N</t>
+  </si>
+  <si>
+    <t>CCC1=C(C(=CC=C1)CC)NC2=NCCN2</t>
+  </si>
+  <si>
+    <t>CNS(=O)(=O)CC1=CC2=C(C=C1)NC=C2CCN(C)C</t>
+  </si>
+  <si>
+    <t>CS(=O)(=O)NCCN1C(=O)NC[C@]12CCN3CCC4=C([C@@H]3C2)OC5=CC=CC=C45</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.2165/00003495-200767090-00007</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/BF01285555</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s11064-011-0564-5</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/1756-0500-6-277</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/newbio239247a0</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/BF01245345</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s15010-007-6165-1</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/978-3-211-45295-0</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/BF01020067</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s11064-011-0697-6</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.2165/00003088-198916060-00003</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/npp.2013.75</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.2165/00003495-199345060-00007</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/BF01243357</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/BF03347865</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/978-3-642-75872-0_12</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s13052-018-0562-1</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.2165/00003495-200059020-00020</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41598-018-32733-3</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/BF00462034</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/BF01960664</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/978-3-7091-4408-4_2</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/BF00627918</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.2165/11598000-000000000-00000</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/978-1-59745-197-0</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s40064-015-1206-1</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s11682-016-9604-8</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s40265-019-01160-7</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s11094-018-1808-3</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/978-1-4615-1951-5_21</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s004360050301</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/BF03350483</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/BF00216009</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.2165/00003088-199427020-00002</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41598-019-55154-2</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/BF02431544</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s10194-009-0170-y</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s12031-002-0018-2</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s13028-018-0380-x</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.2165/00003495-199346030-00007</t>
+  </si>
+  <si>
+    <t>C1=C(C(=O)NC(=O)N1)F</t>
+  </si>
+  <si>
+    <t>C12=NNN=C1N=C(NC2=O)N</t>
+  </si>
+  <si>
+    <t>C1C[C@@H](C2=CC=CC=C2C1)N(CC3=CC(=CC=C3)OC4=CC=CC=C4)C(=O)C5=CC(=C(C=C5C(=O)O)C(=O)O)C(=O)O</t>
+  </si>
+  <si>
+    <t>C[C@@H]1C[C@H]2[C@@H](C[C@]3([C@H](O2)C[C@H]4[C@H](O3)C(=CC(=O)O4)C)C)O[C@@H]5[C@@H]1O[C@H]6C[C@@H]7[C@](C[C@@H]8[C@@](O7)(C/C=C\[C@@H]9[C@@H](O8)C[C@@H]1[C@@H](O9)C[C@@H]2[C@@](O1)([C@H](C[C@@H](O2)CC(=C)C=O)O)C)C)(O[C@@]6(CC5)C)C</t>
+  </si>
+  <si>
+    <t>CCOC(=O)C1=C(NC(=C(C1C2=CC=CC=C2Cl)C(=O)OC)C)COCCN</t>
+  </si>
+  <si>
+    <t>C[N+]1(C2CCC1CC(C2)OC(=O)C(CO)C3=CC=CC=C3)C.[N+](=O)([O-])[O-]</t>
+  </si>
+  <si>
+    <t>C[C@H](C1=CCC23[C@@]1(C[C@H](C4=C2C=CO4)OCOC)CN(CCO3)C)OC(=O)C5=CC=CC6=CC=CC=C65</t>
+  </si>
+  <si>
+    <t>CSCC[C@@H](C(=O)NCC(=O)N[C@@H](CC1=CNC2=CC=CC=C21)C(=O)N[C@@H](CCSC)C(=O)N[C@@H](CC(=O)O)C(=O)N[C@@H](CC3=CC=CC=C3)C(=O)N)NC(=O)[C@H](CC4=CC=C(C=C4)OS(=O)(=O)O)NC(=O)[C@H](CC(=O)O)N</t>
+  </si>
+  <si>
+    <t>N.N.Cl[Pt]Cl</t>
+  </si>
+  <si>
+    <t>CCC[C@@H]1C[C@H](N(C1)C)C(=O)N[C@@H]([C@@H]2[C@@H]([C@@H]([C@H]([C@H](O2)SC)O)O)O)[C@H](C)Cl</t>
+  </si>
+  <si>
+    <t>C1=CC=C2C(=C1)C(=CC(=C2N)N=NC3=CC=C(C=C3)C4=CC=C(C=C4)N=NC5=C(C6=CC=CC=C6C(=C5)S(=O)(=O)[O-])N)S(=O)(=O)[O-].[Na+].[Na+]</t>
+  </si>
+  <si>
+    <t>C1CN(C[C@@H]1C(C2=CC=CC=C2)(C3=CC=CC=C3)C(=O)N)CCC4=CC5=C(C=C4)OCC5</t>
+  </si>
+  <si>
+    <t>C1CCN(CC1)C2=NC(=NC3=C2N=C(N=C3N4CCCCC4)N(CCO)CCO)N(CCO)CCO</t>
+  </si>
+  <si>
+    <t>CCCCCCCC(=O)N[C@H](CN1CCCC1)[C@@H](C2=CC3=C(C=C2)OCCO3)O</t>
+  </si>
+  <si>
+    <t>C[C@@H](C(=O)N1CCC[C@H]1C(=O)O)N[C@@H](CCC2=CC=CC=C2)C(=O)O</t>
+  </si>
+  <si>
+    <t>CCN1CCN(CC1)C2=C(C=C3C(=C2)N(C=C(C3=O)C(=O)O)C4CC4)F</t>
+  </si>
+  <si>
+    <t>CCCCC1=NC(=C(N1CC2=CC=C(C=C2)C3=CC=CC=C3C4=NN=N[N-]4)CO)Cl.[K+]</t>
+  </si>
+  <si>
+    <t>CC(C)NCC(COC1=CC=C(C=C1)CCC(=O)OC)O</t>
+  </si>
+  <si>
+    <t>C1CNCC(C2=CC(=C(C(=C21)Cl)O)O)C3=CC=C(C=C3)O</t>
+  </si>
+  <si>
+    <t>CC1=CN(C(=O)NC1=O)[C@H]2C[C@@H]([C@H](O2)CO)F</t>
+  </si>
+  <si>
+    <t>C(CC(=O)O)[C@@H](C(=O)O)N</t>
+  </si>
+  <si>
+    <t>C[N+]1(CCC(C1)OC(=O)C(C2CCCC2)(C3=CC=CC=C3)O)C</t>
+  </si>
+  <si>
+    <t>C1CCCN(CCC1)CCN=C(N)N.OS(=O)(=O)O</t>
+  </si>
+  <si>
+    <t>C[N+](C)(C)CCCCCC[N+](C)(C)C</t>
+  </si>
+  <si>
+    <t>CN(C)CCOC1=CC=C(C=C1)CNC(=O)C2=CC(=C(C=C2)OC)OC</t>
+  </si>
+  <si>
+    <t>CN(CCCN1CCC2=CC(=C(C=C2CC1=O)OC)OC)C[C@H]3CC4=CC(=C(C=C34)OC)OC</t>
+  </si>
+  <si>
+    <t>CS(=O)(=O)CCNCC1=CC=C(O1)C2=CC3=C(C=C2)N=CN=C3NC4=CC(=C(C=C4)OCC5=CC(=CC=C5)F)Cl</t>
+  </si>
+  <si>
+    <t>CC#CCN1C2=C(N=C1N3CCC[C@H](C3)N)N(C(=O)N(C2=O)CC4=NC5=CC=CC=C5C(=N4)C)C</t>
+  </si>
+  <si>
+    <t>CC1=CC(=C(C=C1)SC2=C(C=CC(=C2)O)N3CCNCC3)C</t>
+  </si>
+  <si>
+    <t>CC(C)(COP(=O)(O)OP(=O)(O)OC[C@@H]1[C@H]([C@H]([C@@H](O1)N2C=NC3=C(N=CN=C32)N)O)OP(=O)(O)O)[C@H](C(=O)NCCC(=O)NCCSC(=O)CC(=O)O)O</t>
+  </si>
+  <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>C[N+]1([C@@H]2CC(C[C@H]1[C@H]3[C@@H]2O3)OC(=O)[C@H](CO)C4=CC=CC=C4)C</t>
+  </si>
+  <si>
+    <t>CC(C)[C@H]1C2=C(CC[C@@]1(CCN(C)CCCC3=NC4=CC=CC=C4N3)OC(=O)COC)C=C(C=C2)F</t>
+  </si>
+  <si>
+    <t>COC1=CC(=C(C=C1)OC)C(CNC(=O)CN)O</t>
+  </si>
+  <si>
+    <t>CC1=C(C(=O)C2=C(C1=O)N3C[C@H]4[C@@H]([C@@]3([C@@H]2COC(=O)N)OC)N4)N</t>
+  </si>
+  <si>
+    <t>C1=CC=C2C(=C1)C=CC=C2CC(=O)O</t>
+  </si>
+  <si>
+    <t>COCCOCCOCCOCCOCCOCCOCCO[C@H]1CC[C@]2([C@H]3CC4=C5[C@]2([C@H]1OC5=C(C=C4)O)CCN3CC=C)O</t>
+  </si>
+  <si>
+    <t>C[C@@H](CN1C=CC(=N1)C2=CC(=C(C=C2)C#N)Cl)NC(=O)C3=NNC(=C3)C(C)O</t>
+  </si>
+  <si>
+    <t>CC[C@H](C)[C@H]1C(=O)N[C@H](C(=O)N[C@H](C(=O)N[C@@H](CSSC[C@@H](C(=O)N[C@H](C(=O)N1)CC2=CC=C(C=C2)O)N)C(=O)N3CCC[C@H]3C(=O)N[C@@H](CC(C)C)C(=O)NCC(=O)N)CC(=O)N)CCC(=O)N</t>
+  </si>
+  <si>
+    <t>CC1=CC2=C([C@@H]3[C@@H]4CC5=C(C(=C6C(=C5[C@@H](N4[C@H]([C@H](C2)N3C)O)CNC(=O)/C=C/C7=CC(=CC=C7)C(F)(F)F)OCO6)C)OC(=O)C)C(=C1OC)O</t>
+  </si>
+  <si>
+    <t>C[N+]1=CC=CC(=C1)OC(=O)N(C)C</t>
+  </si>
+  <si>
+    <t>C1=CC(=C(C=C1C2=C(C(=O)C3=C(C=C(C=C3O2)O)O)O)O)O</t>
+  </si>
+  <si>
+    <t>CC[C@H](C)[C@@H](C(=O)O)NC(=O)[C@@H](CC1=CC2=CC=CC=C2C=C1)NC(=O)[C@H](CO)NC(=O)[C@H](CC3=CC=CC=C3)NC(=O)CNC(=O)[C@@H]4CCCN4C(=O)[C@@H]5CCCN5C(=O)[C@H](CCCN=C(N)N)NC(=O)[C@H](CCCCN)NC(=O)C</t>
+  </si>
+  <si>
+    <t>CC[C@H](C)[C@@H](C(=O)O)NC(=O)[C@@H](CC1=CC2=CC=CC=C2C=C1)NC(=O)[C@H](CO)NC(=O)[C@](C)(CC3=CC=CC=C3)NC(=O)CNC(=O)[C@@H]4CCCN4C(=O)[C@@H]5C[C@@H]6CCCC[C@@H]6N5C(=O)[C@H](CCCN=C(N)N)NC(=O)[C@H](CCCN)NC(=O)C</t>
+  </si>
+  <si>
+    <t>C[C@@H]1[C@@H](C[C@@H]2[C@@H]1C[C@@]3([C@H]4CC([C@@]3([C@@]2(C4)C=O)C(=O)O)C(C)C)CO[C@H]5C[C@@H]6[C@@H]([C@H](O5)C)OCC6=C)Cl</t>
+  </si>
+  <si>
+    <t>C1CN2CCC1[C@H](C2)OC(=O)N3CCC4=CC=CC=C4[C@@H]3C5=CC=CC=C5</t>
+  </si>
+  <si>
+    <t>C1C[C@@H]2[C@H]([C@H]([C@H]1O2)C/C=C\CCCC(=O)O)CNNC(=O)NC3=CC=CC=C3</t>
+  </si>
+  <si>
+    <t>CC[C@H](C)C[C@H](C)/C=C/C(=O)O[C@@H]1[C@H]([C@]2(O[C@@H]([C@]([C@@]1(O2)C(=O)O)(C(=O)O)O)C(=O)O)CCC(=C)[C@H]([C@H](C)CC3=CC=CC=C3)OC(=O)C)O</t>
+  </si>
+  <si>
+    <t>CN(C)C/C=C/C(=O)NC1=CC=C(C=C1)C(=O)NC2=CC=CC(=C2)NC3=NC=C(C(=N3)C4=CNC5=CC=CC=C54)Cl</t>
+  </si>
+  <si>
+    <t>CC(C)N1C2=NC=NC(=C2C(=N1)C3=CC4=C(N3)C=CC(=C4)O)N</t>
+  </si>
+  <si>
+    <t>C[C@H]1C(=O)N[C@H](C(=O)N[C@H]2CSSC[C@H]3C(=O)N[C@H](C(=O)N[C@H](C(=O)NCC(=O)N[C@H](C(=O)N[C@@H](CSSC[C@@H](C(=O)N[C@@H](CSSC[C@@H](C(=O)N[C@H](C(=O)NCC(=O)N[C@H](C(=O)NCC(=O)N1)CCCCN)CCCCN)N)C(=O)N[C@H](C(=O)NCC(=O)N[C@H](C(=O)N3)CO)[C@@H](C)O)NC(=O)[C@@H](NC(=O)[C@@H](NC(=O)[C@@H](NC(=O)[C@@H](NC(=O)[C@@H](NC(=O)[C@@H](NC2=O)CO)CCCNC(=N)N)CC(C)C)CCSC)CC4=CC=C(C=C4)O)CC(=O)O)C(=O)N)CCCCN)CO)CCCNC(=N)N)CCCCN</t>
+  </si>
+  <si>
+    <t>C1=CN(C=N1)CC(O)(P(=O)(O)O)P(=O)(O)O</t>
+  </si>
+  <si>
+    <t>CCCCN(CC)C1=NC(=NC2=C1C(=C(N2C3=C(C=C(C=C3C)C)C)C)C)C</t>
+  </si>
+  <si>
+    <t>CCC1=CN=C(C=C1)CCOC2=CC=C(C=C2)CC3C(=O)NC(=O)S3</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/sj.cgt.7700978</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s12640-017-9824-8</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41598-019-39591-7</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/2051-5960-2-62</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s12933-018-0800-2</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/sj.npp.1300393</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.2119/molmed.2010.00180</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/1756-6606-6-50</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/1471-2407-14-745</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41598-018-22787-8</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s13075-015-0597-2</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s10194-019-1005-0</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s40902-016-0051-7</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s00213-020-05693-8</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s00125-012-2654-6</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s12974-018-1274-6</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s12035-021-02521-8</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41467-017-01837-1</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s12879-019-4408-2</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41598-020-62923-x</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s00213-017-4593-x</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/1750-1326-8-6</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s13311-020-00897-4</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41598-017-11664-5</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s42003-020-01570-4</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41598-021-00764-y</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s41016-021-00238-0</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s13023-016-0413-3</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1203/01.PDR.0000127012.37315.36</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s13311-017-0598-8</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1203/PDR.0b013e3181fcbef3</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s12871-015-0154-1</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s10286-020-00714-0</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s41824-019-0071-5</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/aps.2014.1</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s11064-015-1675-1</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s13063-020-4089-6</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s12958-018-0400-8</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/sj.npp.1300586</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s12885-019-6316-7</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s12876-021-01712-w</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s15010-014-0611-7</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s13311-017-0538-7</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/srep21887</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s40199-015-0120-y</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s12933-018-0702-3</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s40800-018-0077-0</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s40262-017-0612-7</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/1743-7075-3-15</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1203/PDR.0b013e31815b4421</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s12904-019-0416-7</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/sj.npp.1301585</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/1744-8069-8-54</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s10286-017-0434-6</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/ncomms10068</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/srep23723</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/npp.2015.248</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s12325-021-01766-y</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41598-018-29594-1</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s13195-016-0195-9</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41598-018-20210-w</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/srep12007</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/mp.2014.132</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s40750-014-0010-4</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/bjc.2012.99</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41598-017-14021-8</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s12951-021-00879-4</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/mp.2012.42</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/1742-2094-7-36</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s12967-019-2095-9</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/nm1142</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s00125-006-0326-0</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s00280-018-3736-z</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s13195-021-00917-1</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1203/00006450-200205000-00005</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s13311-016-0511-x</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/npp.2011.77</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/srep35885</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/alzrt245</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s10194-011-0352-2</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41467-017-02484-2</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s11060-006-9308-9</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/oncsis.2017.33</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s00401-019-01998-x</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41467-019-09494-2</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41598-018-33215-2</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s12276-018-0166-2</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/sj.npp.1301085</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s11682-010-9098-8</t>
   </si>
 </sst>
 </file>
@@ -9719,12 +10874,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -10040,10 +11196,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BEBDAED-DA2C-4442-A1DD-59FA47860CD0}">
-  <dimension ref="A1:P3492"/>
+  <dimension ref="A1:P3749"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A3742" workbookViewId="0">
+      <selection activeCell="J3757" sqref="J3757"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -58983,6 +60139,3604 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3493" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3493" t="s">
+        <v>3203</v>
+      </c>
+      <c r="E3493" s="3" t="s">
+        <v>3280</v>
+      </c>
+      <c r="F3493" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3493">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3494" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3494" t="s">
+        <v>3204</v>
+      </c>
+      <c r="E3494" s="3" t="s">
+        <v>3281</v>
+      </c>
+      <c r="F3494" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3494">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3495" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3495" t="s">
+        <v>3205</v>
+      </c>
+      <c r="E3495" s="3" t="s">
+        <v>3281</v>
+      </c>
+      <c r="F3495" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3495">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3496" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3496" t="s">
+        <v>3206</v>
+      </c>
+      <c r="E3496" s="3" t="s">
+        <v>3282</v>
+      </c>
+      <c r="F3496" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3496">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3497" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3497" t="s">
+        <v>3207</v>
+      </c>
+      <c r="E3497" s="3" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F3497" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3497">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3498" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3498" t="s">
+        <v>3208</v>
+      </c>
+      <c r="E3498" s="3" t="s">
+        <v>3284</v>
+      </c>
+      <c r="F3498" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3498">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3499" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3499" t="s">
+        <v>3209</v>
+      </c>
+      <c r="E3499" s="3" t="s">
+        <v>3285</v>
+      </c>
+      <c r="F3499" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3499">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3500" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3500" t="s">
+        <v>3210</v>
+      </c>
+      <c r="E3500" s="3" t="s">
+        <v>3285</v>
+      </c>
+      <c r="F3500" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3500">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3501" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3501" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E3501" s="3" t="s">
+        <v>3286</v>
+      </c>
+      <c r="F3501" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3501">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3502" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3502" t="s">
+        <v>2488</v>
+      </c>
+      <c r="E3502" s="3" t="s">
+        <v>3286</v>
+      </c>
+      <c r="F3502" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3502">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3503" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3503" t="s">
+        <v>2490</v>
+      </c>
+      <c r="E3503" s="3" t="s">
+        <v>3286</v>
+      </c>
+      <c r="F3503" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3503">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3504" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3504" t="s">
+        <v>2494</v>
+      </c>
+      <c r="E3504" s="3" t="s">
+        <v>3287</v>
+      </c>
+      <c r="F3504" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3504">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3505" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3505" t="s">
+        <v>3211</v>
+      </c>
+      <c r="E3505" s="3" t="s">
+        <v>3288</v>
+      </c>
+      <c r="F3505" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3505">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3506" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3506" t="s">
+        <v>3212</v>
+      </c>
+      <c r="E3506" s="3" t="s">
+        <v>3289</v>
+      </c>
+      <c r="F3506" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3506">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3507" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3507" t="s">
+        <v>3213</v>
+      </c>
+      <c r="E3507" s="3" t="s">
+        <v>3290</v>
+      </c>
+      <c r="F3507" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3507">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3508" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3508" t="s">
+        <v>3214</v>
+      </c>
+      <c r="E3508" s="3" t="s">
+        <v>3291</v>
+      </c>
+      <c r="F3508" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3508">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3509" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3509" t="s">
+        <v>3215</v>
+      </c>
+      <c r="E3509" s="3" t="s">
+        <v>3292</v>
+      </c>
+      <c r="F3509" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3509">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3510" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3510" t="s">
+        <v>3216</v>
+      </c>
+      <c r="E3510" s="3" t="s">
+        <v>3293</v>
+      </c>
+      <c r="F3510" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3510">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3511" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3511" t="s">
+        <v>3217</v>
+      </c>
+      <c r="E3511" s="3" t="s">
+        <v>3294</v>
+      </c>
+      <c r="F3511" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3511">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3512" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3512" t="s">
+        <v>3218</v>
+      </c>
+      <c r="E3512" s="3" t="s">
+        <v>3295</v>
+      </c>
+      <c r="F3512" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3512">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3513" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3513" t="s">
+        <v>3219</v>
+      </c>
+      <c r="E3513" s="3" t="s">
+        <v>3296</v>
+      </c>
+      <c r="F3513" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3513">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3514" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3514" t="s">
+        <v>3220</v>
+      </c>
+      <c r="E3514" s="3" t="s">
+        <v>3297</v>
+      </c>
+      <c r="F3514" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3514">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3515" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3515" t="s">
+        <v>3221</v>
+      </c>
+      <c r="E3515" s="3" t="s">
+        <v>3298</v>
+      </c>
+      <c r="F3515" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3515">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3516" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3516" t="s">
+        <v>3222</v>
+      </c>
+      <c r="E3516" s="3" t="s">
+        <v>3299</v>
+      </c>
+      <c r="F3516" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3516">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3517" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3517" t="s">
+        <v>3223</v>
+      </c>
+      <c r="E3517" s="3" t="s">
+        <v>3300</v>
+      </c>
+      <c r="F3517" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3517">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3518" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3518" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E3518" s="3" t="s">
+        <v>3301</v>
+      </c>
+      <c r="F3518" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3518">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3519" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3519" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E3519" s="3" t="s">
+        <v>3302</v>
+      </c>
+      <c r="F3519" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3519">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3520" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3520" t="s">
+        <v>3226</v>
+      </c>
+      <c r="E3520" s="3" t="s">
+        <v>3303</v>
+      </c>
+      <c r="F3520" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3520">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3521" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3521" t="s">
+        <v>3227</v>
+      </c>
+      <c r="E3521" s="3" t="s">
+        <v>3304</v>
+      </c>
+      <c r="F3521" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3521">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3522" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3522" t="s">
+        <v>3228</v>
+      </c>
+      <c r="E3522" s="3" t="s">
+        <v>3305</v>
+      </c>
+      <c r="F3522" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3522">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3523" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3523" t="s">
+        <v>2586</v>
+      </c>
+      <c r="E3523" s="3" t="s">
+        <v>3306</v>
+      </c>
+      <c r="F3523" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3523">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3524" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3524" t="s">
+        <v>3229</v>
+      </c>
+      <c r="E3524" s="3" t="s">
+        <v>3307</v>
+      </c>
+      <c r="F3524" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3524">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3525" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3525" t="s">
+        <v>3230</v>
+      </c>
+      <c r="E3525" s="3" t="s">
+        <v>3308</v>
+      </c>
+      <c r="F3525" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3525">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3526" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3526" t="s">
+        <v>3231</v>
+      </c>
+      <c r="E3526" s="3" t="s">
+        <v>3309</v>
+      </c>
+      <c r="F3526" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3526">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3527" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3527" t="s">
+        <v>3232</v>
+      </c>
+      <c r="E3527" s="3" t="s">
+        <v>3310</v>
+      </c>
+      <c r="F3527" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3527">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3528" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3528" t="s">
+        <v>3233</v>
+      </c>
+      <c r="E3528" s="3" t="s">
+        <v>3311</v>
+      </c>
+      <c r="F3528" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3528">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3529" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3529" t="s">
+        <v>2494</v>
+      </c>
+      <c r="E3529" s="3" t="s">
+        <v>3312</v>
+      </c>
+      <c r="F3529" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3529">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3530" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3530" t="s">
+        <v>3234</v>
+      </c>
+      <c r="E3530" s="3" t="s">
+        <v>3313</v>
+      </c>
+      <c r="F3530" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3530">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3531" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3531" t="s">
+        <v>3235</v>
+      </c>
+      <c r="E3531" s="3" t="s">
+        <v>3314</v>
+      </c>
+      <c r="F3531" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3531">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3532" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3532" t="s">
+        <v>3236</v>
+      </c>
+      <c r="E3532" s="3" t="s">
+        <v>3315</v>
+      </c>
+      <c r="F3532" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3532">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3533" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3533" t="s">
+        <v>3237</v>
+      </c>
+      <c r="E3533" s="3" t="s">
+        <v>3316</v>
+      </c>
+      <c r="F3533" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3533">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3534" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3534" t="s">
+        <v>2505</v>
+      </c>
+      <c r="E3534" s="3" t="s">
+        <v>3317</v>
+      </c>
+      <c r="F3534" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3534">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3535" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3535" t="s">
+        <v>3238</v>
+      </c>
+      <c r="E3535" s="3" t="s">
+        <v>3318</v>
+      </c>
+      <c r="F3535" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3535">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3536" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3536" t="s">
+        <v>3239</v>
+      </c>
+      <c r="E3536" s="3" t="s">
+        <v>3319</v>
+      </c>
+      <c r="F3536" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3536">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3537" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3537" t="s">
+        <v>3240</v>
+      </c>
+      <c r="E3537" s="3" t="s">
+        <v>3320</v>
+      </c>
+      <c r="F3537" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3537">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3538" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3538" t="s">
+        <v>3241</v>
+      </c>
+      <c r="E3538" s="3" t="s">
+        <v>3321</v>
+      </c>
+      <c r="F3538" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3538">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3539" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3539" t="s">
+        <v>2514</v>
+      </c>
+      <c r="E3539" s="3" t="s">
+        <v>3322</v>
+      </c>
+      <c r="F3539" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3539">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3540" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3540" t="s">
+        <v>3242</v>
+      </c>
+      <c r="E3540" s="3" t="s">
+        <v>3323</v>
+      </c>
+      <c r="F3540" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3540">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3541" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3541" t="s">
+        <v>3243</v>
+      </c>
+      <c r="E3541" s="3" t="s">
+        <v>3324</v>
+      </c>
+      <c r="F3541" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3541">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3542" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3542" t="s">
+        <v>3244</v>
+      </c>
+      <c r="E3542" s="3" t="s">
+        <v>3325</v>
+      </c>
+      <c r="F3542" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3542">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3543" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3543" t="s">
+        <v>3245</v>
+      </c>
+      <c r="E3543" s="3" t="s">
+        <v>3326</v>
+      </c>
+      <c r="F3543" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3543">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3544" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3544" t="s">
+        <v>3246</v>
+      </c>
+      <c r="E3544" s="3" t="s">
+        <v>3327</v>
+      </c>
+      <c r="F3544" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3544">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3545" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3545" t="s">
+        <v>2534</v>
+      </c>
+      <c r="E3545" s="3" t="s">
+        <v>3328</v>
+      </c>
+      <c r="F3545" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3545">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3546" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3546" t="s">
+        <v>3247</v>
+      </c>
+      <c r="E3546" s="3" t="s">
+        <v>3329</v>
+      </c>
+      <c r="F3546" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3546">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3547" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3547" t="s">
+        <v>3248</v>
+      </c>
+      <c r="E3547" s="3" t="s">
+        <v>3330</v>
+      </c>
+      <c r="F3547" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3547">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3548" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3548" t="s">
+        <v>3249</v>
+      </c>
+      <c r="E3548" s="3" t="s">
+        <v>3331</v>
+      </c>
+      <c r="F3548" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3548">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3549" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3549" t="s">
+        <v>3250</v>
+      </c>
+      <c r="E3549" s="3" t="s">
+        <v>3332</v>
+      </c>
+      <c r="F3549" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3549">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3550" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3550" t="s">
+        <v>3251</v>
+      </c>
+      <c r="E3550" s="3" t="s">
+        <v>3332</v>
+      </c>
+      <c r="F3550" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3550">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3551" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3551" t="s">
+        <v>3252</v>
+      </c>
+      <c r="E3551" s="3" t="s">
+        <v>3333</v>
+      </c>
+      <c r="F3551" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3551">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3552" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3552" t="s">
+        <v>3253</v>
+      </c>
+      <c r="E3552" s="3" t="s">
+        <v>3334</v>
+      </c>
+      <c r="F3552" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3552">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3553" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3553" t="s">
+        <v>3254</v>
+      </c>
+      <c r="E3553" s="3" t="s">
+        <v>3335</v>
+      </c>
+      <c r="F3553" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3553">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3554" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3554" t="s">
+        <v>3255</v>
+      </c>
+      <c r="E3554" s="3" t="s">
+        <v>3336</v>
+      </c>
+      <c r="F3554" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3554">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3555" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3555" t="s">
+        <v>3256</v>
+      </c>
+      <c r="E3555" s="3" t="s">
+        <v>3337</v>
+      </c>
+      <c r="F3555" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3555">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3556" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3556" t="s">
+        <v>3257</v>
+      </c>
+      <c r="E3556" s="3" t="s">
+        <v>3338</v>
+      </c>
+      <c r="F3556" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3556">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3557" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3557" t="s">
+        <v>3258</v>
+      </c>
+      <c r="E3557" s="3" t="s">
+        <v>3339</v>
+      </c>
+      <c r="F3557" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3557">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3558" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3558" t="s">
+        <v>3259</v>
+      </c>
+      <c r="E3558" s="3" t="s">
+        <v>3340</v>
+      </c>
+      <c r="F3558" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3558">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3559" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3559" t="s">
+        <v>3260</v>
+      </c>
+      <c r="E3559" s="3" t="s">
+        <v>3341</v>
+      </c>
+      <c r="F3559" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3559">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3560" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3560" t="s">
+        <v>3261</v>
+      </c>
+      <c r="E3560" s="3" t="s">
+        <v>3342</v>
+      </c>
+      <c r="F3560" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3560">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3561" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3561" t="s">
+        <v>3262</v>
+      </c>
+      <c r="E3561" s="3" t="s">
+        <v>3343</v>
+      </c>
+      <c r="F3561" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3561">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3562" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3562" t="s">
+        <v>3263</v>
+      </c>
+      <c r="E3562" s="3" t="s">
+        <v>3343</v>
+      </c>
+      <c r="F3562" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3562">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3563" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3563" t="s">
+        <v>3264</v>
+      </c>
+      <c r="E3563" s="3" t="s">
+        <v>3343</v>
+      </c>
+      <c r="F3563" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3563">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3564" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3564" t="s">
+        <v>3265</v>
+      </c>
+      <c r="E3564" s="3" t="s">
+        <v>3343</v>
+      </c>
+      <c r="F3564" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3564">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3565" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3565" t="s">
+        <v>3266</v>
+      </c>
+      <c r="E3565" s="3" t="s">
+        <v>3344</v>
+      </c>
+      <c r="F3565" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3565">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3566" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3566" t="s">
+        <v>3267</v>
+      </c>
+      <c r="E3566" s="3" t="s">
+        <v>3345</v>
+      </c>
+      <c r="F3566" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3566">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3567" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3567" t="s">
+        <v>3268</v>
+      </c>
+      <c r="E3567" s="3" t="s">
+        <v>3346</v>
+      </c>
+      <c r="F3567" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3567">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3568" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3568" t="s">
+        <v>2550</v>
+      </c>
+      <c r="E3568" s="3" t="s">
+        <v>3347</v>
+      </c>
+      <c r="F3568" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3568">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3569" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3569" t="s">
+        <v>3269</v>
+      </c>
+      <c r="E3569" s="3" t="s">
+        <v>3348</v>
+      </c>
+      <c r="F3569" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3569">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3570" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3570" t="s">
+        <v>2621</v>
+      </c>
+      <c r="E3570" s="3" t="s">
+        <v>3349</v>
+      </c>
+      <c r="F3570" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3570">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3571" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3571" t="s">
+        <v>3270</v>
+      </c>
+      <c r="E3571" s="3" t="s">
+        <v>3350</v>
+      </c>
+      <c r="F3571" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3571">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3572" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3572" t="s">
+        <v>3239</v>
+      </c>
+      <c r="E3572" s="3" t="s">
+        <v>3351</v>
+      </c>
+      <c r="F3572" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3572">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3573" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3573" t="s">
+        <v>3271</v>
+      </c>
+      <c r="E3573" s="3" t="s">
+        <v>3352</v>
+      </c>
+      <c r="F3573" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3573">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3574" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3574" t="s">
+        <v>3211</v>
+      </c>
+      <c r="E3574" s="3" t="s">
+        <v>3353</v>
+      </c>
+      <c r="F3574" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3574">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3575" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3575" t="s">
+        <v>3256</v>
+      </c>
+      <c r="E3575" s="3" t="s">
+        <v>3354</v>
+      </c>
+      <c r="F3575" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3575">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3576" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3576" t="s">
+        <v>3272</v>
+      </c>
+      <c r="E3576" s="3" t="s">
+        <v>3355</v>
+      </c>
+      <c r="F3576" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3576">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3577" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3577" t="s">
+        <v>3273</v>
+      </c>
+      <c r="E3577" s="3" t="s">
+        <v>3356</v>
+      </c>
+      <c r="F3577" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3577">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3578" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3578" t="s">
+        <v>3274</v>
+      </c>
+      <c r="E3578" s="3" t="s">
+        <v>3357</v>
+      </c>
+      <c r="F3578" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3578">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3579" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3579" t="s">
+        <v>3275</v>
+      </c>
+      <c r="E3579" s="3" t="s">
+        <v>3358</v>
+      </c>
+      <c r="F3579" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3579">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3580" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3580" t="s">
+        <v>3276</v>
+      </c>
+      <c r="E3580" s="3" t="s">
+        <v>3359</v>
+      </c>
+      <c r="F3580" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3580">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3581" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3581" t="s">
+        <v>3277</v>
+      </c>
+      <c r="E3581" s="3" t="s">
+        <v>3360</v>
+      </c>
+      <c r="F3581" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3581">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3582" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3582" t="s">
+        <v>3278</v>
+      </c>
+      <c r="E3582" s="3" t="s">
+        <v>3361</v>
+      </c>
+      <c r="F3582" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3582">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3583" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3583" t="s">
+        <v>3279</v>
+      </c>
+      <c r="E3583" s="3" t="s">
+        <v>3362</v>
+      </c>
+      <c r="F3583" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3583">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3584" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3584" t="s">
+        <v>3240</v>
+      </c>
+      <c r="E3584" s="3" t="s">
+        <v>3320</v>
+      </c>
+      <c r="F3584" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3584">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3585" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3585" t="s">
+        <v>2505</v>
+      </c>
+      <c r="E3585" s="3" t="s">
+        <v>3371</v>
+      </c>
+      <c r="F3585" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3585">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3586" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3586" t="s">
+        <v>3363</v>
+      </c>
+      <c r="E3586" s="3" t="s">
+        <v>3372</v>
+      </c>
+      <c r="F3586" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3586">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3587" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3587" t="s">
+        <v>3364</v>
+      </c>
+      <c r="E3587" s="3" t="s">
+        <v>3373</v>
+      </c>
+      <c r="F3587" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3587">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3588" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3588" t="s">
+        <v>3365</v>
+      </c>
+      <c r="E3588" s="3" t="s">
+        <v>3374</v>
+      </c>
+      <c r="F3588" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3588">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3589" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3589" t="s">
+        <v>3366</v>
+      </c>
+      <c r="E3589" s="3" t="s">
+        <v>3375</v>
+      </c>
+      <c r="F3589" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3589">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3590" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3590" t="s">
+        <v>3367</v>
+      </c>
+      <c r="E3590" s="3" t="s">
+        <v>3376</v>
+      </c>
+      <c r="F3590" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3590">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3591" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3591" t="s">
+        <v>3368</v>
+      </c>
+      <c r="E3591" s="3" t="s">
+        <v>3377</v>
+      </c>
+      <c r="F3591" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3591">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3592" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3592" t="s">
+        <v>2494</v>
+      </c>
+      <c r="E3592" s="3" t="s">
+        <v>3378</v>
+      </c>
+      <c r="F3592" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3592">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3593" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3593" t="s">
+        <v>3369</v>
+      </c>
+      <c r="E3593" s="3" t="s">
+        <v>3379</v>
+      </c>
+      <c r="F3593" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3593">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3594" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3594" t="s">
+        <v>2586</v>
+      </c>
+      <c r="E3594" s="3" t="s">
+        <v>3380</v>
+      </c>
+      <c r="F3594" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3594">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3595" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3595" t="s">
+        <v>2592</v>
+      </c>
+      <c r="E3595" s="3" t="s">
+        <v>3378</v>
+      </c>
+      <c r="F3595" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3596" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3596" t="s">
+        <v>3211</v>
+      </c>
+      <c r="E3596" s="3" t="s">
+        <v>3353</v>
+      </c>
+      <c r="F3596" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3596">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3597" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3597" t="s">
+        <v>2633</v>
+      </c>
+      <c r="E3597" s="3" t="s">
+        <v>3381</v>
+      </c>
+      <c r="F3597" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3597">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3598" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3598" t="s">
+        <v>3370</v>
+      </c>
+      <c r="E3598" s="3" t="s">
+        <v>3382</v>
+      </c>
+      <c r="F3598" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3598">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3599" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3599" t="s">
+        <v>3383</v>
+      </c>
+      <c r="E3599" s="3" t="s">
+        <v>3405</v>
+      </c>
+      <c r="F3599" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3599">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3600" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3600" t="s">
+        <v>3384</v>
+      </c>
+      <c r="E3600" s="3" t="s">
+        <v>3406</v>
+      </c>
+      <c r="F3600" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3600">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3601" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3601" t="s">
+        <v>2629</v>
+      </c>
+      <c r="E3601" s="3" t="s">
+        <v>3407</v>
+      </c>
+      <c r="F3601" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3601">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3602" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3602" t="s">
+        <v>3245</v>
+      </c>
+      <c r="E3602" s="3" t="s">
+        <v>3408</v>
+      </c>
+      <c r="F3602" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3602">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3603" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3603" t="s">
+        <v>3276</v>
+      </c>
+      <c r="E3603" s="3" t="s">
+        <v>3409</v>
+      </c>
+      <c r="F3603" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3603">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3604" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3604" t="s">
+        <v>3385</v>
+      </c>
+      <c r="E3604" s="3" t="s">
+        <v>3410</v>
+      </c>
+      <c r="F3604" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3604">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3605" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3605" t="s">
+        <v>3195</v>
+      </c>
+      <c r="E3605" s="3" t="s">
+        <v>3411</v>
+      </c>
+      <c r="F3605" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3605">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3606" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3606" t="s">
+        <v>2523</v>
+      </c>
+      <c r="E3606" s="3" t="s">
+        <v>3412</v>
+      </c>
+      <c r="F3606" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3606">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3607" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3607" t="s">
+        <v>3386</v>
+      </c>
+      <c r="E3607" s="3" t="s">
+        <v>3413</v>
+      </c>
+      <c r="F3607" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3607">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3608" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3608" t="s">
+        <v>3278</v>
+      </c>
+      <c r="E3608" s="3" t="s">
+        <v>3414</v>
+      </c>
+      <c r="F3608" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3608">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3609" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3609" t="s">
+        <v>2534</v>
+      </c>
+      <c r="E3609" s="3" t="s">
+        <v>3415</v>
+      </c>
+      <c r="F3609" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3609">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3610" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3610" t="s">
+        <v>3387</v>
+      </c>
+      <c r="E3610" s="3" t="s">
+        <v>3416</v>
+      </c>
+      <c r="F3610" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3610">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3611" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3611" t="s">
+        <v>3388</v>
+      </c>
+      <c r="E3611" s="3" t="s">
+        <v>3417</v>
+      </c>
+      <c r="F3611" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3611">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3612" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3612" t="s">
+        <v>3389</v>
+      </c>
+      <c r="E3612" s="3" t="s">
+        <v>3418</v>
+      </c>
+      <c r="F3612" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3612">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3613" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3613" t="s">
+        <v>2550</v>
+      </c>
+      <c r="E3613" s="3" t="s">
+        <v>3419</v>
+      </c>
+      <c r="F3613" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3613">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3614" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3614" t="s">
+        <v>2494</v>
+      </c>
+      <c r="E3614" s="3" t="s">
+        <v>3378</v>
+      </c>
+      <c r="F3614" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3614">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3615" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3615" t="s">
+        <v>3390</v>
+      </c>
+      <c r="E3615" s="3" t="s">
+        <v>3420</v>
+      </c>
+      <c r="F3615" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3615">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3616" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3616" t="s">
+        <v>3272</v>
+      </c>
+      <c r="E3616" s="3" t="s">
+        <v>3421</v>
+      </c>
+      <c r="F3616" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3616">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3617" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3617" t="s">
+        <v>3238</v>
+      </c>
+      <c r="E3617" s="3" t="s">
+        <v>3422</v>
+      </c>
+      <c r="F3617" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3617">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3618" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3618" t="s">
+        <v>3273</v>
+      </c>
+      <c r="E3618" s="3" t="s">
+        <v>3423</v>
+      </c>
+      <c r="F3618" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3618">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3619" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3619" t="s">
+        <v>3203</v>
+      </c>
+      <c r="E3619" s="3" t="s">
+        <v>3424</v>
+      </c>
+      <c r="F3619" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3619">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3620" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3620" t="s">
+        <v>3391</v>
+      </c>
+      <c r="E3620" s="3" t="s">
+        <v>3425</v>
+      </c>
+      <c r="F3620" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3620">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3621" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3621" t="s">
+        <v>3392</v>
+      </c>
+      <c r="E3621" s="3" t="s">
+        <v>3426</v>
+      </c>
+      <c r="F3621" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3621">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3622" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3622" t="s">
+        <v>2586</v>
+      </c>
+      <c r="E3622" s="3" t="s">
+        <v>3427</v>
+      </c>
+      <c r="F3622" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3622">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3623" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3623" t="s">
+        <v>2592</v>
+      </c>
+      <c r="E3623" s="3" t="s">
+        <v>3378</v>
+      </c>
+      <c r="F3623" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3623">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3624" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3624" t="s">
+        <v>3393</v>
+      </c>
+      <c r="E3624" s="3" t="s">
+        <v>3428</v>
+      </c>
+      <c r="F3624" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3624">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3625" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3625" t="s">
+        <v>3393</v>
+      </c>
+      <c r="E3625" s="3" t="s">
+        <v>3429</v>
+      </c>
+      <c r="F3625" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3625">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3626" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3626" t="s">
+        <v>3394</v>
+      </c>
+      <c r="E3626" s="3" t="s">
+        <v>3430</v>
+      </c>
+      <c r="F3626" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3626">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3627" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3627" t="s">
+        <v>3395</v>
+      </c>
+      <c r="E3627" s="3" t="s">
+        <v>3431</v>
+      </c>
+      <c r="F3627" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3627">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3628" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3628" t="s">
+        <v>3396</v>
+      </c>
+      <c r="E3628" s="3" t="s">
+        <v>3432</v>
+      </c>
+      <c r="F3628" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3628">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3629" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3629" t="s">
+        <v>3211</v>
+      </c>
+      <c r="E3629" s="3" t="s">
+        <v>3433</v>
+      </c>
+      <c r="F3629" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3629">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3630" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3630" t="s">
+        <v>3397</v>
+      </c>
+      <c r="E3630" s="3" t="s">
+        <v>3434</v>
+      </c>
+      <c r="F3630" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3630">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3631" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3631" t="s">
+        <v>3398</v>
+      </c>
+      <c r="E3631" s="3" t="s">
+        <v>3435</v>
+      </c>
+      <c r="F3631" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3631">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3632" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3632" t="s">
+        <v>3399</v>
+      </c>
+      <c r="E3632" s="3" t="s">
+        <v>3436</v>
+      </c>
+      <c r="F3632" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3632">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3633" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3633" t="s">
+        <v>3400</v>
+      </c>
+      <c r="E3633" s="3" t="s">
+        <v>3437</v>
+      </c>
+      <c r="F3633" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3633">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3634" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3634" t="s">
+        <v>2621</v>
+      </c>
+      <c r="E3634" s="3" t="s">
+        <v>3438</v>
+      </c>
+      <c r="F3634" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3634">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3635" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3635" t="s">
+        <v>3401</v>
+      </c>
+      <c r="E3635" s="3" t="s">
+        <v>3439</v>
+      </c>
+      <c r="F3635" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3635">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3636" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3636" t="s">
+        <v>3402</v>
+      </c>
+      <c r="E3636" s="3" t="s">
+        <v>3440</v>
+      </c>
+      <c r="F3636" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3636">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3637" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3637" t="s">
+        <v>3403</v>
+      </c>
+      <c r="E3637" s="3" t="s">
+        <v>3441</v>
+      </c>
+      <c r="F3637" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3637">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3638" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3638" t="s">
+        <v>3239</v>
+      </c>
+      <c r="E3638" s="3" t="s">
+        <v>3442</v>
+      </c>
+      <c r="F3638" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3638">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3639" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3639" t="s">
+        <v>3404</v>
+      </c>
+      <c r="E3639" s="3" t="s">
+        <v>3443</v>
+      </c>
+      <c r="F3639" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3639">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3640" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3640" t="s">
+        <v>2567</v>
+      </c>
+      <c r="E3640" s="3" t="s">
+        <v>3444</v>
+      </c>
+      <c r="F3640" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3640">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3641" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3641" t="s">
+        <v>3245</v>
+      </c>
+      <c r="E3641" s="3" t="s">
+        <v>3408</v>
+      </c>
+      <c r="F3641" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3641">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3642" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3642" t="s">
+        <v>3445</v>
+      </c>
+      <c r="E3642" s="3" t="s">
+        <v>3499</v>
+      </c>
+      <c r="F3642" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3642">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3643" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3643" t="s">
+        <v>3276</v>
+      </c>
+      <c r="E3643" s="3" t="s">
+        <v>3500</v>
+      </c>
+      <c r="F3643" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3643">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3644" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3644" t="s">
+        <v>3446</v>
+      </c>
+      <c r="E3644" s="3" t="s">
+        <v>3501</v>
+      </c>
+      <c r="F3644" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3644">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3645" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3645" t="s">
+        <v>3447</v>
+      </c>
+      <c r="E3645" s="3" t="s">
+        <v>3502</v>
+      </c>
+      <c r="F3645" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3645">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3646" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3646" t="s">
+        <v>3220</v>
+      </c>
+      <c r="E3646" s="3" t="s">
+        <v>3503</v>
+      </c>
+      <c r="F3646" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3646">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3647" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3647" t="s">
+        <v>3448</v>
+      </c>
+      <c r="E3647" s="3" t="s">
+        <v>3504</v>
+      </c>
+      <c r="F3647" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3647">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3648" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3648" t="s">
+        <v>3449</v>
+      </c>
+      <c r="E3648" s="3" t="s">
+        <v>3505</v>
+      </c>
+      <c r="F3648" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3648">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3649" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3649" t="s">
+        <v>3213</v>
+      </c>
+      <c r="E3649" s="3" t="s">
+        <v>3506</v>
+      </c>
+      <c r="F3649" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3649">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3650" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3650" t="s">
+        <v>3366</v>
+      </c>
+      <c r="E3650" s="3" t="s">
+        <v>3507</v>
+      </c>
+      <c r="F3650" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3650">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3651" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3651" t="s">
+        <v>2511</v>
+      </c>
+      <c r="E3651" s="3" t="s">
+        <v>3508</v>
+      </c>
+      <c r="F3651" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3651">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3652" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3652" t="s">
+        <v>3450</v>
+      </c>
+      <c r="E3652" s="3" t="s">
+        <v>3509</v>
+      </c>
+      <c r="F3652" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3652">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3653" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3653" t="s">
+        <v>3230</v>
+      </c>
+      <c r="E3653" s="3" t="s">
+        <v>3308</v>
+      </c>
+      <c r="F3653" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3653">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3654" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3654" t="s">
+        <v>2514</v>
+      </c>
+      <c r="E3654" s="3" t="s">
+        <v>3322</v>
+      </c>
+      <c r="F3654" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3654">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3655" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3655" t="s">
+        <v>3248</v>
+      </c>
+      <c r="E3655" s="3" t="s">
+        <v>3510</v>
+      </c>
+      <c r="F3655" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3655">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3656" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3656" t="s">
+        <v>3451</v>
+      </c>
+      <c r="E3656" s="3" t="s">
+        <v>3511</v>
+      </c>
+      <c r="F3656" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3656">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3657" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3657" t="s">
+        <v>2523</v>
+      </c>
+      <c r="E3657" s="3" t="s">
+        <v>3512</v>
+      </c>
+      <c r="F3657" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3657">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3658" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3658" t="s">
+        <v>3452</v>
+      </c>
+      <c r="E3658" s="3" t="s">
+        <v>3513</v>
+      </c>
+      <c r="F3658" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3658">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3659" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3659" t="s">
+        <v>2685</v>
+      </c>
+      <c r="E3659" s="3" t="s">
+        <v>3514</v>
+      </c>
+      <c r="F3659" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3659">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3660" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3660" t="s">
+        <v>3278</v>
+      </c>
+      <c r="E3660" s="3" t="s">
+        <v>3515</v>
+      </c>
+      <c r="F3660" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3660">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3661" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3661" t="s">
+        <v>3453</v>
+      </c>
+      <c r="E3661" s="3" t="s">
+        <v>3516</v>
+      </c>
+      <c r="F3661" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3661">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3662" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3662" t="s">
+        <v>3454</v>
+      </c>
+      <c r="E3662" s="3" t="s">
+        <v>3517</v>
+      </c>
+      <c r="F3662" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3662">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3663" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3663" t="s">
+        <v>3241</v>
+      </c>
+      <c r="E3663" s="3" t="s">
+        <v>3518</v>
+      </c>
+      <c r="F3663" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3663">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3664" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3664" t="s">
+        <v>3387</v>
+      </c>
+      <c r="E3664" s="3" t="s">
+        <v>3519</v>
+      </c>
+      <c r="F3664" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3664">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3665" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3665" t="s">
+        <v>3455</v>
+      </c>
+      <c r="E3665" s="3" t="s">
+        <v>3520</v>
+      </c>
+      <c r="F3665" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3665">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3666" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3666" t="s">
+        <v>3456</v>
+      </c>
+      <c r="E3666" s="3" t="s">
+        <v>3521</v>
+      </c>
+      <c r="F3666" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3666">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3667" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3667" t="s">
+        <v>3457</v>
+      </c>
+      <c r="E3667" s="3" t="s">
+        <v>3522</v>
+      </c>
+      <c r="F3667" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3667">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3668" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3668" t="s">
+        <v>2550</v>
+      </c>
+      <c r="E3668" s="3" t="s">
+        <v>3523</v>
+      </c>
+      <c r="F3668" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3668">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3669" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3669" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E3669" s="3" t="s">
+        <v>3524</v>
+      </c>
+      <c r="F3669" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3669">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3670" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3670" t="s">
+        <v>2494</v>
+      </c>
+      <c r="E3670" s="3" t="s">
+        <v>3525</v>
+      </c>
+      <c r="F3670" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3670">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3671" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3671" t="s">
+        <v>3458</v>
+      </c>
+      <c r="E3671" s="3" t="s">
+        <v>3526</v>
+      </c>
+      <c r="F3671" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3671">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3672" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3672" t="s">
+        <v>3459</v>
+      </c>
+      <c r="E3672" s="3" t="s">
+        <v>3527</v>
+      </c>
+      <c r="F3672" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3672">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3673" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3673" t="s">
+        <v>3460</v>
+      </c>
+      <c r="E3673" s="3" t="s">
+        <v>3528</v>
+      </c>
+      <c r="F3673" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3673">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3674" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3674" t="s">
+        <v>3461</v>
+      </c>
+      <c r="E3674" s="3" t="s">
+        <v>3529</v>
+      </c>
+      <c r="F3674" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3674">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3675" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3675" t="s">
+        <v>3462</v>
+      </c>
+      <c r="E3675" s="3" t="s">
+        <v>3530</v>
+      </c>
+      <c r="F3675" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3675">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3676" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3676" t="s">
+        <v>3463</v>
+      </c>
+      <c r="E3676" s="3" t="s">
+        <v>3531</v>
+      </c>
+      <c r="F3676" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3676">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3677" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3677" t="s">
+        <v>3464</v>
+      </c>
+      <c r="E3677" s="3" t="s">
+        <v>3532</v>
+      </c>
+      <c r="F3677" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3677">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3678" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3678" t="s">
+        <v>3273</v>
+      </c>
+      <c r="E3678" s="3" t="s">
+        <v>3423</v>
+      </c>
+      <c r="F3678" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3678">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3679" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3679" t="s">
+        <v>3465</v>
+      </c>
+      <c r="E3679" s="3" t="s">
+        <v>3533</v>
+      </c>
+      <c r="F3679" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3679">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3680" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3680" t="s">
+        <v>3267</v>
+      </c>
+      <c r="E3680" s="3" t="s">
+        <v>3534</v>
+      </c>
+      <c r="F3680" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3680">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3681" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3681" t="s">
+        <v>3203</v>
+      </c>
+      <c r="E3681" s="3" t="s">
+        <v>3521</v>
+      </c>
+      <c r="F3681" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3681">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3682" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3682" t="s">
+        <v>3466</v>
+      </c>
+      <c r="E3682" s="3" t="s">
+        <v>3535</v>
+      </c>
+      <c r="F3682" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3682">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3683" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3683" t="s">
+        <v>3467</v>
+      </c>
+      <c r="E3683" s="3" t="s">
+        <v>3536</v>
+      </c>
+      <c r="F3683" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3683">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3684" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3684" t="s">
+        <v>3468</v>
+      </c>
+      <c r="E3684" s="3" t="s">
+        <v>3537</v>
+      </c>
+      <c r="F3684" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3684">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3685" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3685" t="s">
+        <v>3250</v>
+      </c>
+      <c r="E3685" s="3" t="s">
+        <v>3332</v>
+      </c>
+      <c r="F3685" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3685">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3686" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3686" t="s">
+        <v>3206</v>
+      </c>
+      <c r="E3686" s="3" t="s">
+        <v>3282</v>
+      </c>
+      <c r="F3686" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3686">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3687" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3687" t="s">
+        <v>3266</v>
+      </c>
+      <c r="E3687" s="3" t="s">
+        <v>3538</v>
+      </c>
+      <c r="F3687" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3687">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3688" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3688" t="s">
+        <v>3469</v>
+      </c>
+      <c r="E3688" s="3" t="s">
+        <v>3539</v>
+      </c>
+      <c r="F3688" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3688">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3689" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3689" t="s">
+        <v>3197</v>
+      </c>
+      <c r="E3689" s="3" t="s">
+        <v>3540</v>
+      </c>
+      <c r="F3689" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3689">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3690" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3690" t="s">
+        <v>3470</v>
+      </c>
+      <c r="E3690" s="3" t="s">
+        <v>3541</v>
+      </c>
+      <c r="F3690" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3690">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3691" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3691" t="s">
+        <v>3246</v>
+      </c>
+      <c r="E3691" s="3" t="s">
+        <v>3327</v>
+      </c>
+      <c r="F3691" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3691">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3692" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3692" t="s">
+        <v>3246</v>
+      </c>
+      <c r="E3692" s="3" t="s">
+        <v>3542</v>
+      </c>
+      <c r="F3692" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3692">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3693" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3693" t="s">
+        <v>3471</v>
+      </c>
+      <c r="E3693" s="3" t="s">
+        <v>3543</v>
+      </c>
+      <c r="F3693" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3693">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3694" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3694" t="s">
+        <v>3472</v>
+      </c>
+      <c r="E3694" s="3" t="s">
+        <v>3544</v>
+      </c>
+      <c r="F3694" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3694">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3695" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3695" t="s">
+        <v>2586</v>
+      </c>
+      <c r="E3695" s="3" t="s">
+        <v>3545</v>
+      </c>
+      <c r="F3695" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3695">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3696" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3696" t="s">
+        <v>3473</v>
+      </c>
+      <c r="E3696" s="3" t="s">
+        <v>3546</v>
+      </c>
+      <c r="F3696" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3696">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3697" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3697" t="s">
+        <v>3474</v>
+      </c>
+      <c r="E3697" s="3" t="s">
+        <v>3547</v>
+      </c>
+      <c r="F3697" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3697">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3698" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3698" t="s">
+        <v>3475</v>
+      </c>
+      <c r="E3698" s="3" t="s">
+        <v>3548</v>
+      </c>
+      <c r="F3698" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3698">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3699" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3699" t="s">
+        <v>3393</v>
+      </c>
+      <c r="E3699" s="3" t="s">
+        <v>3549</v>
+      </c>
+      <c r="F3699" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3699">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3700" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3700" t="s">
+        <v>3476</v>
+      </c>
+      <c r="E3700" s="3" t="s">
+        <v>3550</v>
+      </c>
+      <c r="F3700" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3700">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3701" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3701" t="s">
+        <v>3477</v>
+      </c>
+      <c r="E3701" s="3" t="s">
+        <v>3551</v>
+      </c>
+      <c r="F3701" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3701">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3702" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3702" t="s">
+        <v>3478</v>
+      </c>
+      <c r="E3702" s="3" t="s">
+        <v>3552</v>
+      </c>
+      <c r="F3702" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3702">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3703" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3703" t="s">
+        <v>3479</v>
+      </c>
+      <c r="E3703" s="3" t="s">
+        <v>3553</v>
+      </c>
+      <c r="F3703" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3703">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3704" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3704" t="s">
+        <v>3480</v>
+      </c>
+      <c r="E3704" s="3" t="s">
+        <v>3554</v>
+      </c>
+      <c r="F3704" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3704">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3705" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3705" t="s">
+        <v>3395</v>
+      </c>
+      <c r="E3705" s="3" t="s">
+        <v>3555</v>
+      </c>
+      <c r="F3705" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3705">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3706" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3706" t="s">
+        <v>3396</v>
+      </c>
+      <c r="E3706" s="3" t="s">
+        <v>3556</v>
+      </c>
+      <c r="F3706" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3706">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3707" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3707" t="s">
+        <v>3481</v>
+      </c>
+      <c r="E3707" s="3" t="s">
+        <v>3556</v>
+      </c>
+      <c r="F3707" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3707">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3708" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3708" t="s">
+        <v>3211</v>
+      </c>
+      <c r="E3708" s="3" t="s">
+        <v>3557</v>
+      </c>
+      <c r="F3708" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3708">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3709" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3709" t="s">
+        <v>3251</v>
+      </c>
+      <c r="E3709" s="3" t="s">
+        <v>3332</v>
+      </c>
+      <c r="F3709" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3709">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3710" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3710" t="s">
+        <v>3255</v>
+      </c>
+      <c r="E3710" s="3" t="s">
+        <v>3558</v>
+      </c>
+      <c r="F3710" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3710">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3711" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3711" t="s">
+        <v>2490</v>
+      </c>
+      <c r="E3711" s="3" t="s">
+        <v>3559</v>
+      </c>
+      <c r="F3711" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3711">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3712" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3712" t="s">
+        <v>3261</v>
+      </c>
+      <c r="E3712" s="3" t="s">
+        <v>3342</v>
+      </c>
+      <c r="F3712" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3712">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3713" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3713" t="s">
+        <v>3482</v>
+      </c>
+      <c r="E3713" s="3" t="s">
+        <v>3560</v>
+      </c>
+      <c r="F3713" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3713">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3714" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3714" t="s">
+        <v>3483</v>
+      </c>
+      <c r="E3714" s="3" t="s">
+        <v>3561</v>
+      </c>
+      <c r="F3714" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3714">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3715" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3715" t="s">
+        <v>3483</v>
+      </c>
+      <c r="E3715" s="3" t="s">
+        <v>3562</v>
+      </c>
+      <c r="F3715" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3715">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3716" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3716" t="s">
+        <v>3239</v>
+      </c>
+      <c r="E3716" s="3" t="s">
+        <v>3351</v>
+      </c>
+      <c r="F3716" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3716">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3717" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3717" t="s">
+        <v>3253</v>
+      </c>
+      <c r="E3717" s="3" t="s">
+        <v>3334</v>
+      </c>
+      <c r="F3717" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3717">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3718" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3718" t="s">
+        <v>3484</v>
+      </c>
+      <c r="E3718" s="3" t="s">
+        <v>3563</v>
+      </c>
+      <c r="F3718" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3718">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3719" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3719" t="s">
+        <v>3234</v>
+      </c>
+      <c r="E3719" s="3" t="s">
+        <v>3313</v>
+      </c>
+      <c r="F3719" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3719">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3720" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3720" t="s">
+        <v>3485</v>
+      </c>
+      <c r="E3720" s="3" t="s">
+        <v>3564</v>
+      </c>
+      <c r="F3720" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3720">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3721" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3721" t="s">
+        <v>3486</v>
+      </c>
+      <c r="E3721" s="3" t="s">
+        <v>3565</v>
+      </c>
+      <c r="F3721" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3721">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3722" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3722" t="s">
+        <v>3188</v>
+      </c>
+      <c r="E3722" s="3" t="s">
+        <v>3566</v>
+      </c>
+      <c r="F3722" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3722">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3723" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3723" t="s">
+        <v>3487</v>
+      </c>
+      <c r="E3723" s="3" t="s">
+        <v>3567</v>
+      </c>
+      <c r="F3723" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3723">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3724" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3724" t="s">
+        <v>3488</v>
+      </c>
+      <c r="E3724" s="3" t="s">
+        <v>3568</v>
+      </c>
+      <c r="F3724" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3724">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3725" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3725" t="s">
+        <v>2633</v>
+      </c>
+      <c r="E3725" s="3" t="s">
+        <v>3569</v>
+      </c>
+      <c r="F3725" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3725">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3726" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3726" t="s">
+        <v>3237</v>
+      </c>
+      <c r="E3726" s="3" t="s">
+        <v>3316</v>
+      </c>
+      <c r="F3726" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3726">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3727" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3727" t="s">
+        <v>3249</v>
+      </c>
+      <c r="E3727" s="3" t="s">
+        <v>3331</v>
+      </c>
+      <c r="F3727" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3727">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3728" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3728" t="s">
+        <v>3233</v>
+      </c>
+      <c r="E3728" s="3" t="s">
+        <v>3570</v>
+      </c>
+      <c r="F3728" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3728">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3729" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3729" t="s">
+        <v>3401</v>
+      </c>
+      <c r="E3729" s="3" t="s">
+        <v>3439</v>
+      </c>
+      <c r="F3729" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3729">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3730" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3730" t="s">
+        <v>3383</v>
+      </c>
+      <c r="E3730" s="3" t="s">
+        <v>3571</v>
+      </c>
+      <c r="F3730" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3730">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3731" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3731" t="s">
+        <v>3256</v>
+      </c>
+      <c r="E3731" s="3" t="s">
+        <v>3572</v>
+      </c>
+      <c r="F3731" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3731">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3732" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3732" t="s">
+        <v>3489</v>
+      </c>
+      <c r="E3732" s="3" t="s">
+        <v>3573</v>
+      </c>
+      <c r="F3732" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3732">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3733" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3733" t="s">
+        <v>3490</v>
+      </c>
+      <c r="E3733" s="3" t="s">
+        <v>3574</v>
+      </c>
+      <c r="F3733" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3733">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3734" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3734" t="s">
+        <v>2640</v>
+      </c>
+      <c r="E3734" s="3" t="s">
+        <v>3575</v>
+      </c>
+      <c r="F3734" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3734">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3735" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3735" t="s">
+        <v>3491</v>
+      </c>
+      <c r="E3735" s="3" t="s">
+        <v>3576</v>
+      </c>
+      <c r="F3735" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3735">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3736" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3736" t="s">
+        <v>3492</v>
+      </c>
+      <c r="E3736" s="3" t="s">
+        <v>3577</v>
+      </c>
+      <c r="F3736" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3736">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3737" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3737" t="s">
+        <v>3403</v>
+      </c>
+      <c r="E3737" s="3" t="s">
+        <v>3578</v>
+      </c>
+      <c r="F3737" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3737">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3738" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3738" t="s">
+        <v>3210</v>
+      </c>
+      <c r="E3738" s="3" t="s">
+        <v>3579</v>
+      </c>
+      <c r="F3738" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3738">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3739" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3739" t="s">
+        <v>3239</v>
+      </c>
+      <c r="E3739" s="3" t="s">
+        <v>3580</v>
+      </c>
+      <c r="F3739" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3739">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3740" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3740" t="s">
+        <v>3493</v>
+      </c>
+      <c r="E3740" s="3" t="s">
+        <v>3581</v>
+      </c>
+      <c r="F3740" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3740">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3741" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3741" t="s">
+        <v>3494</v>
+      </c>
+      <c r="E3741" s="3" t="s">
+        <v>3582</v>
+      </c>
+      <c r="F3741" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3741">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3742" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3742" t="s">
+        <v>3218</v>
+      </c>
+      <c r="E3742" s="3" t="s">
+        <v>3521</v>
+      </c>
+      <c r="F3742" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3742">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3743" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3743" t="s">
+        <v>3404</v>
+      </c>
+      <c r="E3743" s="3" t="s">
+        <v>3443</v>
+      </c>
+      <c r="F3743" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3743">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3744" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3744" t="s">
+        <v>2520</v>
+      </c>
+      <c r="E3744" s="3" t="s">
+        <v>3583</v>
+      </c>
+      <c r="F3744" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3744">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3745" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3745" t="s">
+        <v>3495</v>
+      </c>
+      <c r="E3745" s="3" t="s">
+        <v>3584</v>
+      </c>
+      <c r="F3745" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3745">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3746" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3746" t="s">
+        <v>3496</v>
+      </c>
+      <c r="E3746" s="3" t="s">
+        <v>3585</v>
+      </c>
+      <c r="F3746" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3746">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3747" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3747" t="s">
+        <v>3497</v>
+      </c>
+      <c r="E3747" s="3" t="s">
+        <v>3586</v>
+      </c>
+      <c r="F3747" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3747">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3748" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3748" t="s">
+        <v>3498</v>
+      </c>
+      <c r="E3748" s="3" t="s">
+        <v>3570</v>
+      </c>
+      <c r="F3748" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3748">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3749" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3749" t="s">
+        <v>2628</v>
+      </c>
+      <c r="E3749" s="3" t="s">
+        <v>3587</v>
+      </c>
+      <c r="F3749" t="s">
+        <v>2477</v>
+      </c>
+      <c r="G3749">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:P3492" xr:uid="{7BEBDAED-DA2C-4442-A1DD-59FA47860CD0}"/>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -58994,8 +63748,265 @@
     <hyperlink ref="E2598:E3121" r:id="rId5" display="https://doi.org/10.1007/s11095-008-9609-0" xr:uid="{4FEA8468-D77B-46BA-ABC7-926CCC9B0B7E}"/>
     <hyperlink ref="E3122" r:id="rId6" xr:uid="{C732667D-073F-48D0-80ED-889DF080E7D4}"/>
     <hyperlink ref="E3123:E3492" r:id="rId7" display="https://doi.org/10.1093/bioinformatics/btw713" xr:uid="{837E5B15-F3F6-44A0-9E1F-059DE40C0A07}"/>
+    <hyperlink ref="E3493" r:id="rId8" xr:uid="{8365A8F9-9068-4C01-99B0-5AE8B2C6CEA9}"/>
+    <hyperlink ref="E3494" r:id="rId9" xr:uid="{650198B6-A3F9-4297-8DDD-5C5E7DDFBB65}"/>
+    <hyperlink ref="E3495" r:id="rId10" xr:uid="{109224CF-AF70-42AA-824E-3671774E51BC}"/>
+    <hyperlink ref="E3496" r:id="rId11" xr:uid="{7CC04366-2C2B-46BB-A412-8B4A1B912287}"/>
+    <hyperlink ref="E3497" r:id="rId12" xr:uid="{FD43998F-E75B-43C7-B5F0-E4C534FDF7B4}"/>
+    <hyperlink ref="E3498" r:id="rId13" xr:uid="{60BA5C59-6F37-44C2-A77F-9F6F507F5EC4}"/>
+    <hyperlink ref="E3499" r:id="rId14" xr:uid="{8E616A4F-4B24-48FE-8E6C-AB3D781F5F75}"/>
+    <hyperlink ref="E3500" r:id="rId15" xr:uid="{FC84224A-F48E-435B-A9A7-91A7B5246678}"/>
+    <hyperlink ref="E3501" r:id="rId16" xr:uid="{ACB2E1A8-7EC0-4AB1-BF24-82C93AC4C10D}"/>
+    <hyperlink ref="E3502" r:id="rId17" xr:uid="{021AD312-446F-464A-980F-E60EC9246623}"/>
+    <hyperlink ref="E3503" r:id="rId18" xr:uid="{B91B87B0-5892-43A7-9CB2-7C0151C96AE8}"/>
+    <hyperlink ref="E3504" r:id="rId19" xr:uid="{E7187822-0D87-4E77-9BB4-365E90935B3C}"/>
+    <hyperlink ref="E3505" r:id="rId20" xr:uid="{2621B7D1-908C-4658-88FB-0BFBAB8462F2}"/>
+    <hyperlink ref="E3506" r:id="rId21" xr:uid="{4CA9BBF8-E6DC-4DC0-97E0-C7755B8D1E45}"/>
+    <hyperlink ref="E3507" r:id="rId22" xr:uid="{9A6C63A7-2FC7-45AC-90C1-70BE99B43BCA}"/>
+    <hyperlink ref="E3508" r:id="rId23" xr:uid="{6316E354-3F32-4B74-A662-F50E128B04E9}"/>
+    <hyperlink ref="E3509" r:id="rId24" xr:uid="{6B5C4655-185A-4571-A696-251201217B94}"/>
+    <hyperlink ref="E3510" r:id="rId25" xr:uid="{B0BF1EA8-79A7-4AD3-BC99-493340F19DF7}"/>
+    <hyperlink ref="E3511" r:id="rId26" xr:uid="{D6D5D7D2-B920-4550-B672-AA8E94BE07ED}"/>
+    <hyperlink ref="E3512" r:id="rId27" xr:uid="{020A65CF-13DF-4B9C-A054-E84A3129C163}"/>
+    <hyperlink ref="E3513" r:id="rId28" xr:uid="{DA937ECF-7880-4973-8FA3-6EF56EA08806}"/>
+    <hyperlink ref="E3514" r:id="rId29" xr:uid="{511FDDC2-3FF3-4AE0-9808-A4126FEA05DB}"/>
+    <hyperlink ref="E3515" r:id="rId30" xr:uid="{66DAE067-9033-4F4F-B1DD-0226DC0CC1CC}"/>
+    <hyperlink ref="E3516" r:id="rId31" xr:uid="{BDDA2930-8B47-46A8-8188-41AEF2709CDE}"/>
+    <hyperlink ref="E3517" r:id="rId32" xr:uid="{304B2AF2-4F47-4442-BB79-47318E3037B6}"/>
+    <hyperlink ref="E3518" r:id="rId33" xr:uid="{D87B348E-E4AD-4BE0-AFC0-C966A9137815}"/>
+    <hyperlink ref="E3519" r:id="rId34" xr:uid="{090AFA5D-7836-4357-8289-0EEA81EF9D86}"/>
+    <hyperlink ref="E3520" r:id="rId35" xr:uid="{94A76B6C-DE4D-4791-87B1-7EA53CFB7373}"/>
+    <hyperlink ref="E3521" r:id="rId36" xr:uid="{FEBD9AA9-6D02-4124-A065-83B295A91DFD}"/>
+    <hyperlink ref="E3522" r:id="rId37" xr:uid="{1084D59E-9AAD-4B27-BC53-9B747158EBD2}"/>
+    <hyperlink ref="E3523" r:id="rId38" xr:uid="{03D5B372-A1BF-4698-A111-950E91E67447}"/>
+    <hyperlink ref="E3524" r:id="rId39" xr:uid="{ECEB3CE6-B3D4-4D4E-9154-6D11024FA7E4}"/>
+    <hyperlink ref="E3525" r:id="rId40" xr:uid="{C68E3A7E-D97C-4EBA-B68B-9B4DC33F7BD4}"/>
+    <hyperlink ref="E3526" r:id="rId41" xr:uid="{01C7A825-8697-4417-8D9A-63504F17CEB1}"/>
+    <hyperlink ref="E3527" r:id="rId42" xr:uid="{FED130D0-093C-4D8F-ABE6-6EEBE02BFBC1}"/>
+    <hyperlink ref="E3528" r:id="rId43" xr:uid="{8225CF27-B22F-4824-A9A7-36973E2E21BA}"/>
+    <hyperlink ref="E3529" r:id="rId44" xr:uid="{B1BB2287-C584-4E47-A3E1-F40E5D9081CD}"/>
+    <hyperlink ref="E3530" r:id="rId45" xr:uid="{BD58CD6F-81D0-405C-BAA7-39DE8DF087D5}"/>
+    <hyperlink ref="E3531" r:id="rId46" xr:uid="{50603EF3-D7F8-4B6F-B6C9-DC25C80F792C}"/>
+    <hyperlink ref="E3532" r:id="rId47" xr:uid="{027BC9B2-3573-45B2-9CB1-D18F302ECD31}"/>
+    <hyperlink ref="E3533" r:id="rId48" xr:uid="{499F9FA8-D47D-4F50-9FD0-B713A9A6C6B8}"/>
+    <hyperlink ref="E3534" r:id="rId49" xr:uid="{D96F082F-6B6D-4FA2-BFA3-DD353FE1DE9D}"/>
+    <hyperlink ref="E3535" r:id="rId50" xr:uid="{8969E7C3-3BC5-4395-9832-4E3491FD93A2}"/>
+    <hyperlink ref="E3536" r:id="rId51" xr:uid="{C2A5E62A-2190-4756-BEED-E1A52AC60E5C}"/>
+    <hyperlink ref="E3537" r:id="rId52" xr:uid="{95FF5341-68EA-49C7-AF7B-02011F1100D5}"/>
+    <hyperlink ref="E3538" r:id="rId53" xr:uid="{674503EB-340B-41D8-9AEF-0DDE777BCEBA}"/>
+    <hyperlink ref="E3539" r:id="rId54" xr:uid="{73268534-86EC-47E2-A5DC-D261F22945C8}"/>
+    <hyperlink ref="E3540" r:id="rId55" xr:uid="{A52AD230-E8CE-4992-9D75-0BD7954EC3BD}"/>
+    <hyperlink ref="E3541" r:id="rId56" xr:uid="{441887B6-B406-4CE1-8121-D0444EFD271B}"/>
+    <hyperlink ref="E3542" r:id="rId57" xr:uid="{90812B11-7323-4DD9-881C-17D4604D5F2E}"/>
+    <hyperlink ref="E3543" r:id="rId58" xr:uid="{407FDBEE-93B2-461B-99AF-6776B0EAEDDF}"/>
+    <hyperlink ref="E3544" r:id="rId59" xr:uid="{D56D0396-DA5B-4ABD-94A3-0E7BFB55637F}"/>
+    <hyperlink ref="E3545" r:id="rId60" xr:uid="{0AFC35BF-B4F1-45DA-B840-22B091759D33}"/>
+    <hyperlink ref="E3546" r:id="rId61" xr:uid="{4B0431BF-2669-48B0-8208-7D5753354815}"/>
+    <hyperlink ref="E3547" r:id="rId62" xr:uid="{33C69CF0-B3CF-421D-95B1-F8A9196E8BD6}"/>
+    <hyperlink ref="E3548" r:id="rId63" xr:uid="{8FC7BCC0-A30A-482A-9F77-D310302AE799}"/>
+    <hyperlink ref="E3549" r:id="rId64" xr:uid="{3D643594-A03F-41A4-B2CF-A547624458EE}"/>
+    <hyperlink ref="E3550" r:id="rId65" xr:uid="{F6071F9A-BCF7-4A1B-B757-04E85EE25921}"/>
+    <hyperlink ref="E3551" r:id="rId66" xr:uid="{12D63F93-18E3-4098-B4E7-B38B08C9487C}"/>
+    <hyperlink ref="E3552" r:id="rId67" xr:uid="{125BF7C1-58F6-489D-8EDE-E8EF93D8948D}"/>
+    <hyperlink ref="E3553" r:id="rId68" xr:uid="{5D88E4D9-CCA2-4449-B9AA-2B9F5EC001E8}"/>
+    <hyperlink ref="E3554" r:id="rId69" xr:uid="{C8611F48-4767-4A0F-B648-57E5933ED5EF}"/>
+    <hyperlink ref="E3555" r:id="rId70" xr:uid="{9EE3C457-BF2B-4A20-A03B-0CFFF6109A56}"/>
+    <hyperlink ref="E3556" r:id="rId71" xr:uid="{6FE4E986-3148-4DD7-BD30-450D6522D0A5}"/>
+    <hyperlink ref="E3557" r:id="rId72" xr:uid="{800A7B0D-E703-4AEB-88FD-98F19C75935D}"/>
+    <hyperlink ref="E3558" r:id="rId73" xr:uid="{44CDF3A6-3A4A-4844-B6B0-1A760A49AE0F}"/>
+    <hyperlink ref="E3559" r:id="rId74" xr:uid="{7074C8F3-5EFF-40AF-9440-3BAEBCAA51A7}"/>
+    <hyperlink ref="E3560" r:id="rId75" xr:uid="{00F0F247-B789-4823-A1E0-E77108CE7C06}"/>
+    <hyperlink ref="E3561" r:id="rId76" xr:uid="{BB5FA6AF-37D6-48E0-BA8C-B6AB0E506941}"/>
+    <hyperlink ref="E3562" r:id="rId77" xr:uid="{DC27ECCC-3FE5-45DE-9EDD-785AEE6735B6}"/>
+    <hyperlink ref="E3563" r:id="rId78" xr:uid="{D4F0EB02-8FA2-4F29-A11B-608E7125BBB8}"/>
+    <hyperlink ref="E3564" r:id="rId79" xr:uid="{CFDBD0A4-B7D6-4CA8-9718-834DBFB9FFF9}"/>
+    <hyperlink ref="E3565" r:id="rId80" xr:uid="{39E5C9C6-30B2-40C3-9A8A-CC0ECF8FDE2D}"/>
+    <hyperlink ref="E3566" r:id="rId81" xr:uid="{06176156-223A-421C-98F4-58215982964C}"/>
+    <hyperlink ref="E3567" r:id="rId82" xr:uid="{223FB82E-9A84-4A8B-9238-5602F89A0134}"/>
+    <hyperlink ref="E3568" r:id="rId83" xr:uid="{EAFA4B7A-FAC8-49F3-A458-BC318B7B1349}"/>
+    <hyperlink ref="E3569" r:id="rId84" xr:uid="{B9134F20-8CE8-415D-8F61-946BE8111D69}"/>
+    <hyperlink ref="E3570" r:id="rId85" xr:uid="{97615582-BD5A-4202-A244-3245D5C09157}"/>
+    <hyperlink ref="E3571" r:id="rId86" xr:uid="{217B6DAA-E2C8-4F72-9561-5005CA4A24BF}"/>
+    <hyperlink ref="E3572" r:id="rId87" xr:uid="{32DFDE97-5AE6-4F67-A337-3F158BA08E02}"/>
+    <hyperlink ref="E3573" r:id="rId88" xr:uid="{5DE59955-FE80-40C3-9B27-F682EF4008AF}"/>
+    <hyperlink ref="E3574" r:id="rId89" xr:uid="{F241EFFE-49E4-4061-AE1A-D862AC6FFD93}"/>
+    <hyperlink ref="E3575" r:id="rId90" xr:uid="{19C96463-7F53-4002-9C19-8F207E0A0CA5}"/>
+    <hyperlink ref="E3576" r:id="rId91" xr:uid="{AD1B59F2-B1F7-4E62-8218-ECC2966CF738}"/>
+    <hyperlink ref="E3577" r:id="rId92" xr:uid="{9E43B306-B985-411D-9F2B-5D8D514EF7AD}"/>
+    <hyperlink ref="E3578" r:id="rId93" xr:uid="{0352949D-7771-415A-B53D-A24BBA498F32}"/>
+    <hyperlink ref="E3579" r:id="rId94" xr:uid="{A934C1AB-CEA9-4F4A-BA78-5B86D1FE304B}"/>
+    <hyperlink ref="E3580" r:id="rId95" xr:uid="{ECD4DD18-FB1D-4555-8046-7D373FF9AD29}"/>
+    <hyperlink ref="E3581" r:id="rId96" xr:uid="{D9EA9416-DC1C-4822-9538-9FF4937C8F0A}"/>
+    <hyperlink ref="E3582" r:id="rId97" xr:uid="{4B9FF71F-6457-48D7-BDFE-4A346BEC19B5}"/>
+    <hyperlink ref="E3583" r:id="rId98" xr:uid="{97FB9F0D-F46B-48FD-AA42-25C1D4FA0116}"/>
+    <hyperlink ref="E3584" r:id="rId99" xr:uid="{E7B2055B-DB38-4FBF-AD80-55ED6D6AE0DB}"/>
+    <hyperlink ref="E3585" r:id="rId100" xr:uid="{D045C334-F46B-4C13-86FD-7062F3784291}"/>
+    <hyperlink ref="E3586" r:id="rId101" xr:uid="{8CCC9B5D-7341-4224-996D-BEDF274693A2}"/>
+    <hyperlink ref="E3587" r:id="rId102" xr:uid="{DA26B5A4-75F0-4848-B877-4833C52784C8}"/>
+    <hyperlink ref="E3588" r:id="rId103" xr:uid="{E6D7FEE9-CBB1-4D4B-9829-ACE0363D496A}"/>
+    <hyperlink ref="E3589" r:id="rId104" xr:uid="{FE19DD7B-2516-40E8-A7D3-E69DAAED03F3}"/>
+    <hyperlink ref="E3590" r:id="rId105" xr:uid="{6AF1BE2E-4268-4D95-8B09-0CB3CDC35B34}"/>
+    <hyperlink ref="E3591" r:id="rId106" xr:uid="{38D9716F-1D19-48D2-BB09-E5565E14BF9E}"/>
+    <hyperlink ref="E3592" r:id="rId107" xr:uid="{E85D507A-07DE-40AD-8430-712E4990A1D6}"/>
+    <hyperlink ref="E3593" r:id="rId108" xr:uid="{0AB15D4A-0065-4E41-B269-79F1F54489C4}"/>
+    <hyperlink ref="E3594" r:id="rId109" xr:uid="{84AE0E04-80F8-4504-8164-DBA0610EDA0C}"/>
+    <hyperlink ref="E3595" r:id="rId110" xr:uid="{9525F93F-2581-4330-B890-0B90D319475A}"/>
+    <hyperlink ref="E3596" r:id="rId111" xr:uid="{46C87841-03E6-4B8A-BEB3-F2CCD386D273}"/>
+    <hyperlink ref="E3597" r:id="rId112" xr:uid="{B39C4A41-2D47-473E-AC71-C69A276746DB}"/>
+    <hyperlink ref="E3598" r:id="rId113" xr:uid="{C845F330-9902-4B2E-8C78-B28A8215CBCD}"/>
+    <hyperlink ref="E3599" r:id="rId114" xr:uid="{240B47EB-030B-4937-BD89-FB1663ECAC02}"/>
+    <hyperlink ref="E3600" r:id="rId115" xr:uid="{4083AF8B-A39A-4A42-A8D0-57361272CC07}"/>
+    <hyperlink ref="E3601" r:id="rId116" xr:uid="{AFCB446A-6D6D-472D-834A-1667355C7ACE}"/>
+    <hyperlink ref="E3602" r:id="rId117" xr:uid="{2A4CF3AD-FB76-475E-962D-A5DDF4656C2A}"/>
+    <hyperlink ref="E3603" r:id="rId118" xr:uid="{2191564C-97CB-4F62-9215-B2A8261CF767}"/>
+    <hyperlink ref="E3604" r:id="rId119" xr:uid="{4172B8EB-4BC7-4E42-82D2-793A8C2B44AC}"/>
+    <hyperlink ref="E3605" r:id="rId120" xr:uid="{0A69A979-EE29-4827-AAE8-A656563577DA}"/>
+    <hyperlink ref="E3606" r:id="rId121" xr:uid="{1C0F69BA-BF65-40A7-8EA8-5F66E37AEFF7}"/>
+    <hyperlink ref="E3607" r:id="rId122" xr:uid="{6FF02C41-7B19-4827-BC60-47326BE45549}"/>
+    <hyperlink ref="E3608" r:id="rId123" xr:uid="{D3B705E4-6010-4809-8044-71ACF6252E66}"/>
+    <hyperlink ref="E3609" r:id="rId124" xr:uid="{4C8E04F3-3412-4BC2-B34D-1F69BC13DCAA}"/>
+    <hyperlink ref="E3610" r:id="rId125" xr:uid="{D26FCF6E-EEAA-47FA-A713-E1F8FE9FDF0C}"/>
+    <hyperlink ref="E3611" r:id="rId126" xr:uid="{F33CC622-4BD3-4C24-AF1B-31716C08258E}"/>
+    <hyperlink ref="E3612" r:id="rId127" xr:uid="{2805CF3B-933D-4050-A15F-B8C234645D88}"/>
+    <hyperlink ref="E3613" r:id="rId128" xr:uid="{60DDE3FD-D534-4572-BBC8-1BFC603B2F81}"/>
+    <hyperlink ref="E3614" r:id="rId129" xr:uid="{85B14DA5-AD2F-4AF3-80EA-1766384E1BF4}"/>
+    <hyperlink ref="E3615" r:id="rId130" xr:uid="{69FA85FF-7DE6-4822-AFF2-8D179B301C9F}"/>
+    <hyperlink ref="E3616" r:id="rId131" xr:uid="{E8A73D4C-7116-4A02-A6B8-3E9C617D1964}"/>
+    <hyperlink ref="E3617" r:id="rId132" xr:uid="{D5918E68-72B5-45ED-B2DD-A06AF0153822}"/>
+    <hyperlink ref="E3618" r:id="rId133" xr:uid="{B4F96929-53B2-436C-A329-0D98A75158AD}"/>
+    <hyperlink ref="E3619" r:id="rId134" xr:uid="{EA64AE77-EF43-4695-834C-ACCC9E19AC1C}"/>
+    <hyperlink ref="E3620" r:id="rId135" xr:uid="{B0D98544-8349-4648-A351-8401567F05E6}"/>
+    <hyperlink ref="E3621" r:id="rId136" xr:uid="{D0AB0AB5-1246-4781-9D84-BAE3A74A5498}"/>
+    <hyperlink ref="E3622" r:id="rId137" xr:uid="{A4CDA8E1-4F19-4310-8F7B-3370A11C05AE}"/>
+    <hyperlink ref="E3623" r:id="rId138" xr:uid="{9635434C-B965-4DB5-9D27-EA92E1D5C888}"/>
+    <hyperlink ref="E3624" r:id="rId139" xr:uid="{B75411E6-D8C6-4223-B305-059B07A81D6D}"/>
+    <hyperlink ref="E3625" r:id="rId140" xr:uid="{57B42698-9A74-456E-AF5C-985D326EC879}"/>
+    <hyperlink ref="E3626" r:id="rId141" xr:uid="{52233779-8FC9-4333-9D45-E81C689533FB}"/>
+    <hyperlink ref="E3627" r:id="rId142" xr:uid="{7111BD45-A8F3-4C5F-8178-AE40F0EEBDE6}"/>
+    <hyperlink ref="E3628" r:id="rId143" xr:uid="{76AD5B0A-BBBE-47C2-98B8-54429E395F5E}"/>
+    <hyperlink ref="E3629" r:id="rId144" xr:uid="{ECF3FC43-EAA4-4777-B57F-BABF7EF1701E}"/>
+    <hyperlink ref="E3630" r:id="rId145" xr:uid="{C435F75D-60D8-4866-9152-FCE48526D1EA}"/>
+    <hyperlink ref="E3631" r:id="rId146" xr:uid="{8885846F-927E-4313-98CD-2C3F14B6716C}"/>
+    <hyperlink ref="E3632" r:id="rId147" xr:uid="{F40FD1CB-59CE-472B-8F58-66F73F7ECB47}"/>
+    <hyperlink ref="E3633" r:id="rId148" xr:uid="{E0E5377F-E278-4F69-9323-885CA709B9CF}"/>
+    <hyperlink ref="E3634" r:id="rId149" xr:uid="{8457E3BF-4CEB-447F-B9F8-D4F7DE82582A}"/>
+    <hyperlink ref="E3635" r:id="rId150" xr:uid="{8FDF0416-A167-48EE-B536-BA6C8DF84943}"/>
+    <hyperlink ref="E3636" r:id="rId151" xr:uid="{B7FC5A04-349D-44BE-87C7-D0A41C4B7A2B}"/>
+    <hyperlink ref="E3637" r:id="rId152" xr:uid="{C7E8E45B-419E-482C-BCD0-41C201CB3F7D}"/>
+    <hyperlink ref="E3638" r:id="rId153" xr:uid="{1FCB5AA3-C189-4ECF-A655-1FD1C46208F0}"/>
+    <hyperlink ref="E3639" r:id="rId154" xr:uid="{1CB417D1-6518-4848-9E4C-42893D80B89F}"/>
+    <hyperlink ref="E3640" r:id="rId155" xr:uid="{EB1C2CD9-9061-4047-A227-6A164B39D6F4}"/>
+    <hyperlink ref="E3641" r:id="rId156" xr:uid="{20128EE0-96BC-4632-84B8-8A10809A4FE7}"/>
+    <hyperlink ref="E3642" r:id="rId157" xr:uid="{875D34BB-D06A-4791-A950-026456C5362D}"/>
+    <hyperlink ref="E3643" r:id="rId158" xr:uid="{A0100867-8BA1-4483-B4DC-1ED10B7EEB2C}"/>
+    <hyperlink ref="E3644" r:id="rId159" xr:uid="{D560399D-A5B0-46E4-B9A7-B8C90E181B08}"/>
+    <hyperlink ref="E3645" r:id="rId160" xr:uid="{DE0DCEBB-AEBD-40BE-8A1B-2FF82F9AFAED}"/>
+    <hyperlink ref="E3646" r:id="rId161" xr:uid="{E2A3703D-996F-47D7-8AE9-809833F952B5}"/>
+    <hyperlink ref="E3647" r:id="rId162" xr:uid="{AB810585-82EF-4269-B407-A6194B183779}"/>
+    <hyperlink ref="E3648" r:id="rId163" xr:uid="{34A61B57-ACC3-4ED7-8A4F-BD91FE8A76D1}"/>
+    <hyperlink ref="E3649" r:id="rId164" xr:uid="{9D6D3B49-4CA7-4297-8641-1BDD3E12C31E}"/>
+    <hyperlink ref="E3650" r:id="rId165" xr:uid="{66AFE0D4-939D-45A3-AEDE-E51241EDBEBE}"/>
+    <hyperlink ref="E3651" r:id="rId166" xr:uid="{DD5770B3-736C-4DF0-8E9E-220C5D448FDB}"/>
+    <hyperlink ref="E3652" r:id="rId167" xr:uid="{89B901B5-DB08-456B-9DE7-0ECA63031039}"/>
+    <hyperlink ref="E3653" r:id="rId168" xr:uid="{C750C5BB-09EE-4920-B968-86AFFF80552E}"/>
+    <hyperlink ref="E3654" r:id="rId169" xr:uid="{BF8642F2-56BE-4C80-A292-6B1A801068BE}"/>
+    <hyperlink ref="E3655" r:id="rId170" xr:uid="{5B5CD710-6302-4320-BB73-C30AB6ADD7BF}"/>
+    <hyperlink ref="E3656" r:id="rId171" xr:uid="{B7D4D368-1C2E-426F-9050-BEC1C3436CAE}"/>
+    <hyperlink ref="E3657" r:id="rId172" xr:uid="{329CCD1A-CB11-4D7F-B76D-A91585AB60F6}"/>
+    <hyperlink ref="E3658" r:id="rId173" xr:uid="{489B2959-A5A8-4204-8E8D-781BB7D1D908}"/>
+    <hyperlink ref="E3659" r:id="rId174" xr:uid="{AA371F9A-1718-4855-A16C-75141AA3C6FF}"/>
+    <hyperlink ref="E3660" r:id="rId175" xr:uid="{1D28E23C-F742-490B-B1B3-773A15B02887}"/>
+    <hyperlink ref="E3661" r:id="rId176" xr:uid="{371FD8EC-FB26-4CE7-8B4A-43DFED8EE858}"/>
+    <hyperlink ref="E3662" r:id="rId177" xr:uid="{5A4EFE18-7308-4C37-AC46-3FF61BABE386}"/>
+    <hyperlink ref="E3663" r:id="rId178" xr:uid="{2C2CC87B-36AC-4320-B2EB-5CF830DD04B7}"/>
+    <hyperlink ref="E3664" r:id="rId179" xr:uid="{F016FD11-F9E0-4126-8FD7-0DC2FFA97588}"/>
+    <hyperlink ref="E3665" r:id="rId180" xr:uid="{49193284-2A80-4E4E-9464-1107E12D13DE}"/>
+    <hyperlink ref="E3666" r:id="rId181" xr:uid="{E97D2584-A9D1-405E-8929-988DD5CECE0E}"/>
+    <hyperlink ref="E3667" r:id="rId182" xr:uid="{94A2104C-1DC7-4B95-801D-462E910778B3}"/>
+    <hyperlink ref="E3668" r:id="rId183" xr:uid="{B66F6693-1238-44F9-B784-CE703C3E2A56}"/>
+    <hyperlink ref="E3669" r:id="rId184" xr:uid="{E9BB9F24-4083-4A32-8495-ECFEE5FF56C1}"/>
+    <hyperlink ref="E3670" r:id="rId185" xr:uid="{DDAAC98B-BD13-4294-8FE4-938C03BD504E}"/>
+    <hyperlink ref="E3671" r:id="rId186" xr:uid="{6DFEB9ED-D7B9-4CCC-857B-841342DCACAA}"/>
+    <hyperlink ref="E3672" r:id="rId187" xr:uid="{DBCC5527-C960-455F-9A43-8FFA2546D92E}"/>
+    <hyperlink ref="E3673" r:id="rId188" xr:uid="{56C19427-F08E-45D2-93F4-34F9E0F94990}"/>
+    <hyperlink ref="E3674" r:id="rId189" xr:uid="{4B79A393-0AEF-4E76-B053-DB6D00B92333}"/>
+    <hyperlink ref="E3675" r:id="rId190" xr:uid="{37CF1F62-3DB5-4996-A075-5A4F7A741BC1}"/>
+    <hyperlink ref="E3676" r:id="rId191" xr:uid="{E9394299-CEA0-41A9-8902-65291E212912}"/>
+    <hyperlink ref="E3677" r:id="rId192" xr:uid="{C44257EF-4112-405F-ABA6-2BB1A68A565A}"/>
+    <hyperlink ref="E3678" r:id="rId193" xr:uid="{01F4FD84-1C20-4901-A500-091804EE75BB}"/>
+    <hyperlink ref="E3679" r:id="rId194" xr:uid="{313BE8B1-20C7-4A6D-85AD-13AE7922FEF2}"/>
+    <hyperlink ref="E3680" r:id="rId195" xr:uid="{B2F4884E-6BC8-4184-85BD-9966510942D4}"/>
+    <hyperlink ref="E3681" r:id="rId196" xr:uid="{82303A24-7D88-4CDF-960E-54294500E0C3}"/>
+    <hyperlink ref="E3682" r:id="rId197" xr:uid="{F55B9C0C-8774-4127-8A86-4518E91426CA}"/>
+    <hyperlink ref="E3683" r:id="rId198" xr:uid="{6D5BF7AE-7421-42E9-9BCE-D43F4171E4EC}"/>
+    <hyperlink ref="E3684" r:id="rId199" xr:uid="{07468FCD-6A3B-4190-8A2F-CBDE1430BBE8}"/>
+    <hyperlink ref="E3685" r:id="rId200" xr:uid="{556D16A9-E700-4FFB-88CD-FF23711E1838}"/>
+    <hyperlink ref="E3686" r:id="rId201" xr:uid="{ADE95A15-0353-45A2-A076-370D34C8F49D}"/>
+    <hyperlink ref="E3687" r:id="rId202" xr:uid="{A8E88F21-000A-4387-8864-CAD487FCDF58}"/>
+    <hyperlink ref="E3688" r:id="rId203" xr:uid="{524BBC1A-4A7B-4BD0-A3EF-558212239270}"/>
+    <hyperlink ref="E3689" r:id="rId204" xr:uid="{FB7B1988-A9BB-4453-8889-C05B27671997}"/>
+    <hyperlink ref="E3690" r:id="rId205" xr:uid="{B776B284-5B66-4450-AAF9-C55D2D7D34CA}"/>
+    <hyperlink ref="E3691" r:id="rId206" xr:uid="{F929607C-0B73-4582-AAB3-C5053E5CFC88}"/>
+    <hyperlink ref="E3692" r:id="rId207" xr:uid="{A34F007A-1278-4F93-BC43-792340C26EE3}"/>
+    <hyperlink ref="E3693" r:id="rId208" xr:uid="{B853B768-D213-433D-B441-4FFD9EC6463A}"/>
+    <hyperlink ref="E3694" r:id="rId209" xr:uid="{D9646986-4DE0-4116-9708-5929CA3CA613}"/>
+    <hyperlink ref="E3695" r:id="rId210" xr:uid="{66C0D6D9-30A6-49A6-AC15-A3BF81D7575D}"/>
+    <hyperlink ref="E3696" r:id="rId211" xr:uid="{50FE10AA-D32C-4DFA-AF3F-2687EBED3D3B}"/>
+    <hyperlink ref="E3697" r:id="rId212" xr:uid="{B468CF01-B2CA-4432-8D6D-0CFD3F42AA8D}"/>
+    <hyperlink ref="E3698" r:id="rId213" xr:uid="{E26912DE-9C10-4315-B8A8-17647B490BFE}"/>
+    <hyperlink ref="E3699" r:id="rId214" xr:uid="{B9CA5A57-3E5F-4C3A-B468-4BEC814B445C}"/>
+    <hyperlink ref="E3700" r:id="rId215" xr:uid="{17117E26-888F-425B-8222-E4DEFF1D61F3}"/>
+    <hyperlink ref="E3701" r:id="rId216" xr:uid="{6F52E010-9CEA-471B-88B5-41AAAE89437F}"/>
+    <hyperlink ref="E3702" r:id="rId217" xr:uid="{89C550F7-9E8D-4BDE-8E1C-22C632682E1C}"/>
+    <hyperlink ref="E3703" r:id="rId218" xr:uid="{FA0F5699-40F8-4ABA-881F-42FAE12312A2}"/>
+    <hyperlink ref="E3704" r:id="rId219" xr:uid="{6AF4710D-4516-4561-892A-256EA051F776}"/>
+    <hyperlink ref="E3705" r:id="rId220" xr:uid="{AF3C481B-3C7E-43CD-A143-B4ADE30F9DC2}"/>
+    <hyperlink ref="E3706" r:id="rId221" xr:uid="{DFC22F25-BBEF-4D36-9DF0-69A197895BFD}"/>
+    <hyperlink ref="E3707" r:id="rId222" xr:uid="{318D2BE8-7FB9-4353-821E-6376D708A18B}"/>
+    <hyperlink ref="E3708" r:id="rId223" xr:uid="{FE6642A7-76EF-4198-A0D7-17E161761EED}"/>
+    <hyperlink ref="E3709" r:id="rId224" xr:uid="{CD1931F5-B29C-4245-A50C-D61E05271DF6}"/>
+    <hyperlink ref="E3710" r:id="rId225" xr:uid="{BB7D81CB-FED2-4EB5-87E9-5C02EF2B23E6}"/>
+    <hyperlink ref="E3711" r:id="rId226" xr:uid="{EEFB5E9A-30AC-4D0F-9076-8A321A2E2E76}"/>
+    <hyperlink ref="E3712" r:id="rId227" xr:uid="{CAA9DD7F-2FBF-4FFB-948F-5BC822028C9E}"/>
+    <hyperlink ref="E3713" r:id="rId228" xr:uid="{197D337C-D025-498E-9BD5-DC692D5634FA}"/>
+    <hyperlink ref="E3714" r:id="rId229" xr:uid="{B591A237-D01C-4CB9-87F9-40FFAEF5929A}"/>
+    <hyperlink ref="E3715" r:id="rId230" xr:uid="{1AF51238-1A1B-44F3-815A-A12FA7F06ADE}"/>
+    <hyperlink ref="E3716" r:id="rId231" xr:uid="{C9DD1EA2-5969-4D5C-8066-BCA0BB7CB9F0}"/>
+    <hyperlink ref="E3717" r:id="rId232" xr:uid="{CC3CC4DC-B8D3-4850-A95B-AFD7FCAC3EF8}"/>
+    <hyperlink ref="E3718" r:id="rId233" xr:uid="{31A1E466-8611-4AEB-89D6-5A2EC601348D}"/>
+    <hyperlink ref="E3719" r:id="rId234" xr:uid="{79FD13FA-3740-4B06-8AAA-F50BAD56AF78}"/>
+    <hyperlink ref="E3720" r:id="rId235" xr:uid="{2A8C4414-0911-4097-8DAB-74F510987147}"/>
+    <hyperlink ref="E3721" r:id="rId236" xr:uid="{B2028B66-971B-4FCD-A8E6-E7DAE1C9ED6B}"/>
+    <hyperlink ref="E3722" r:id="rId237" xr:uid="{F4126D83-9AE1-41EA-AD00-AFB92D3D19B5}"/>
+    <hyperlink ref="E3723" r:id="rId238" xr:uid="{11CF6026-D869-41AD-9E23-BCED163373EE}"/>
+    <hyperlink ref="E3724" r:id="rId239" xr:uid="{2F0DD50F-3E45-402F-8E75-073FF46ED9EF}"/>
+    <hyperlink ref="E3725" r:id="rId240" xr:uid="{212EAE67-F03D-4325-9522-4ADB1C375CFB}"/>
+    <hyperlink ref="E3726" r:id="rId241" xr:uid="{5CDE10B8-BBD9-4EA3-AE7D-86CD74F74FA0}"/>
+    <hyperlink ref="E3727" r:id="rId242" xr:uid="{8CE2348B-8858-454E-A8EA-E7BD538C2BBD}"/>
+    <hyperlink ref="E3728" r:id="rId243" xr:uid="{632D56E1-7674-4FD2-9B46-0A09A329BADB}"/>
+    <hyperlink ref="E3729" r:id="rId244" xr:uid="{64E79FF7-49C1-4FDE-A347-8B0AFDB76F53}"/>
+    <hyperlink ref="E3730" r:id="rId245" xr:uid="{C1B4D39E-B9E1-482E-8462-C80C6E85BCBC}"/>
+    <hyperlink ref="E3731" r:id="rId246" xr:uid="{D8607AF7-60CB-4BE1-8E3B-4BE61F4F0B27}"/>
+    <hyperlink ref="E3732" r:id="rId247" xr:uid="{E629D19D-9E8E-41BD-A0A7-FE26E1DD01B6}"/>
+    <hyperlink ref="E3733" r:id="rId248" xr:uid="{7F858AD1-1079-4E3F-8B63-6FE77DF8BA0B}"/>
+    <hyperlink ref="E3734" r:id="rId249" xr:uid="{FB8653EB-CE90-4C29-972A-1BF97F978374}"/>
+    <hyperlink ref="E3735" r:id="rId250" xr:uid="{87364CAC-852F-48CE-A695-60511B1F1AF2}"/>
+    <hyperlink ref="E3736" r:id="rId251" xr:uid="{4A10643D-DAFF-4958-93F0-3BC9C6A2500A}"/>
+    <hyperlink ref="E3737" r:id="rId252" xr:uid="{91DD79A9-942D-42B5-A4CF-E2AD6A182494}"/>
+    <hyperlink ref="E3738" r:id="rId253" xr:uid="{EFD9CCC4-FA42-4CA2-B48B-80B53E30A687}"/>
+    <hyperlink ref="E3739" r:id="rId254" xr:uid="{C67D6A9D-C73A-4172-8609-236039E74376}"/>
+    <hyperlink ref="E3740" r:id="rId255" xr:uid="{2003E5C7-544D-430C-A08D-0F83D97E3ED4}"/>
+    <hyperlink ref="E3741" r:id="rId256" xr:uid="{7C58D942-3294-4D66-AB37-5597F1BF0E03}"/>
+    <hyperlink ref="E3742" r:id="rId257" xr:uid="{3B86FE40-C40D-4D60-95C3-948458B5CED8}"/>
+    <hyperlink ref="E3743" r:id="rId258" xr:uid="{D9038546-B870-4723-AA04-6CABB39A2C5B}"/>
+    <hyperlink ref="E3744" r:id="rId259" xr:uid="{9E32167A-FC61-4B2D-8BBF-BF2091A990E9}"/>
+    <hyperlink ref="E3745" r:id="rId260" xr:uid="{2AC848B2-E2C2-4C51-956F-4CE4A05FAECA}"/>
+    <hyperlink ref="E3746" r:id="rId261" xr:uid="{92225204-40AA-4D2F-856E-229DFE77CCC6}"/>
+    <hyperlink ref="E3747" r:id="rId262" xr:uid="{D9B345C9-4F6F-4007-A7BA-E21D300CC660}"/>
+    <hyperlink ref="E3748" r:id="rId263" xr:uid="{A270AF82-01EE-48A2-AA9F-8C0AB525C612}"/>
+    <hyperlink ref="E3749" r:id="rId264" xr:uid="{70ADEB82-9E1C-4BEA-B832-2EE9734A3A3F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId265"/>
 </worksheet>
 </file>